--- a/投资心得/watch-list.xlsx
+++ b/投资心得/watch-list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="107">
   <si>
     <t>证券简称</t>
     <rPh sb="0" eb="1">
@@ -109,45 +109,671 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>券商一致
+预测价格</t>
+    <rPh sb="0" eb="1">
+      <t>quan shang yi zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu ce jia ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势热度
+得分</t>
+    <rPh sb="0" eb="1">
+      <t>qu shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>re du de fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利潜力
+得分</t>
+    <rPh sb="0" eb="1">
+      <t>ying li qian li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十年国债利率中枢</t>
+    <rPh sb="0" eb="1">
+      <t>shi nian guo zhai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>li lü</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhong shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行PE</t>
+    <rPh sb="0" eb="1">
+      <t>gong shang yin hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选股策略</t>
+    <rPh sb="0" eb="1">
+      <t>xuan gu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce lue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、经营现金流大幅超出净利润（金融行业除外）（利润有提升的空间）</t>
+    <rPh sb="23" eb="24">
+      <t>li run</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>you ti sheng</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>de</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>kong jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、每年分红稳定增长（留得住人）</t>
+    <rPh sb="11" eb="12">
+      <t>liu de zhu ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、大股东或管理层过去无明显侵害小股东利益的行为（不是来圈钱的）</t>
+    <rPh sb="25" eb="26">
+      <t>bu shi lai quan qian</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、分析优质公司的估值（预测公司未来三年的净利润，然后用当前市值除以三年后的净利润，得出一个PE，如果小于10，我一般都认为是低估的，可以开始建仓，当然这种方法不适用于银行保险地产等高负债企业。如果高于15，我一般认为是高估的，暂时纳入观察名单，等待估值达到合理区间时再买入。等到财报出炉，计算出持有个股三年后PE高于15，则考虑卖出该股。分析估值的核心在于预测公司未来三年的净利润，这就要求具有行业分析和研究财报这两个核心能力）</t>
+    <rPh sb="138" eb="139">
+      <t>deng dao</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>cai bao chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收款减少额+应付款增加额：这两个数字之和体现了公司的回款能力以及在产业链中的地位，数字越大说明地位越高，销售商品时经常先收款再发货，占用产业链上下游的资金，比较典型的就是高端白酒行业。相反，如果这两个数字之和是个很大的负数，那就说明公司回款出现了问题，应收款大量增加，可能预示着资金链和行业地位开始恶化。</t>
+  </si>
+  <si>
+    <t>存货减少额：这个数字也很好理解，如果一家公司商品滞销，存货就会大幅上升，也会造成经营现金流低于净利润的情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比值</t>
+    <rPh sb="0" eb="1">
+      <t>bi zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折旧与摊销：这个数字每年必定大于零，但不同行业差异很大，比如高速股每年的折旧金额就非常大，所以高速股的经营现金流总会大幅高于净利润。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不适合银行保险等金融行业，适合一个完整营业周期超过一年的行业，净利润主要来自投资收益的企业</t>
+    <rPh sb="0" eb="1">
+      <t>bu shi he</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>短期估值
 空间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>券商一致
-预测价格</t>
-    <rPh sb="0" eb="1">
-      <t>quan shang yi zhi</t>
+    <t>7、PEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、ROE显著高出同行，20%（效率高，同行业估值，本身历史估值）</t>
+    <rPh sb="16" eb="17">
+      <t>xiao lü gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、优秀的行业和企业（马太效应）</t>
+    <rPh sb="7" eb="8">
+      <t>he</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi ye</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ma tai xiao ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年ROE</t>
+    <rPh sb="4" eb="5">
+      <t>nian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年净利润</t>
+    <rPh sb="4" eb="5">
+      <t>nian</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>yu ce jia ge</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>趋势热度
-得分</t>
-    <rPh sb="0" eb="1">
-      <t>qu shi</t>
+      <t>jing li run</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年分红率</t>
+    <rPh sb="4" eb="5">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen hong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lü</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申万二级行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑机械与重型卡车</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年行业平均ROE</t>
+    <rPh sb="4" eb="5">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hang ye</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ping jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海螺水泥</t>
+    <rPh sb="0" eb="1">
+      <t>hai luo shui ni</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建材</t>
+    <rPh sb="0" eb="1">
+      <t>jian cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金风格配置监控周报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>天风证券股份有限公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4E4E4E"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 
+研究员：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF18479B"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吴先兴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营活动产生的现金流量净额=净利润+折旧与摊销+应收款减少额+应付款增加额+存货减少额
+（一家经营持续向好的公司，经营现金流量净额应该接近或大于净利润的金额，如果大幅小于净利润的金额，那这家公司大概率是遇到了什么问题。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人寿</t>
+    <rPh sb="0" eb="1">
+      <t>zhong guo ren shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人寿与健康保险</t>
+    <rPh sb="0" eb="1">
+      <t>ren shou</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>re du de fen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈利潜力
-得分</t>
-    <rPh sb="0" eb="1">
-      <t>ying li qian li</t>
+      <t>yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jian kang</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>de fen</t>
+      <t>bao xian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁沪高速</t>
+    <rPh sb="0" eb="1">
+      <t>ning hu gao su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售费用管控能力</t>
+  </si>
+  <si>
+    <t>销售费用管控能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售费用除以营业收入这个指标来衡量一家公司的销售费用管控能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公路与铁路</t>
+    <rPh sb="0" eb="1">
+      <t>gong lu yu tie lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力电器</t>
+    <rPh sb="0" eb="1">
+      <t>ge li dian qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家用电器</t>
+    <rPh sb="0" eb="1">
+      <t>jia yong dian qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长江电力</t>
+    <rPh sb="0" eb="1">
+      <t>chang jiang dian li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力</t>
+    <rPh sb="0" eb="1">
+      <t>dian li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众信旅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店、度假村和豪华游艇</t>
+    <rPh sb="0" eb="1">
+      <t>jiu dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>du jia cun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hao hua you ting</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2018年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经营活动产生的现金流量净额</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>nian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理费用管控能力</t>
+    <rPh sb="0" eb="1">
+      <t>guan li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理费用除以营业收入这个指标来衡量一家公司的管理费用管控能力</t>
+    <rPh sb="0" eb="1">
+      <t>guan li</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>guan li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三安光电</t>
+    <rPh sb="0" eb="1">
+      <t>san an guang dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半导体</t>
+    <rPh sb="0" eb="1">
+      <t>ban dao ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板电器</t>
+    <rPh sb="0" eb="1">
+      <t>lao ban dian qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万华化学</t>
+    <rPh sb="0" eb="1">
+      <t>wamn hua hua xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础化工</t>
+    <rPh sb="0" eb="1">
+      <t>ji chu hua gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国石油</t>
+    <rPh sb="0" eb="1">
+      <t>zhong guo shi you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合性石油天然气</t>
+    <rPh sb="0" eb="1">
+      <t>zong he xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi you tian ran qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立讯精密</t>
+    <rPh sb="0" eb="1">
+      <t>li xun jing mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子元件</t>
+    <rPh sb="0" eb="1">
+      <t>dian zi yuan jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方雨虹</t>
+    <rPh sb="0" eb="1">
+      <t>dong fang yu hong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.9&amp;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信证券</t>
+    <rPh sb="0" eb="1">
+      <t>zhong xin zheng quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资银行业与经纪业</t>
+    <rPh sb="0" eb="1">
+      <t>tou zi yin hang ye</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jing ji ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊利股份</t>
+    <rPh sb="0" eb="1">
+      <t>yi li gu fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品加工与肉类</t>
+    <rPh sb="0" eb="1">
+      <t>shi pin jia gong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>rou lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国石化</t>
+    <rPh sb="0" eb="1">
+      <t>zhong guo shi hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`-0.025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳机场</t>
+    <rPh sb="0" eb="1">
+      <t>shen zhen ji chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机场服务</t>
+    <rPh sb="0" eb="1">
+      <t>ji chang fu wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,10 +781,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="000000"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,8 +801,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4E4E4E"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF18479B"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体 (正文)"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +836,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -209,10 +866,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -492,101 +1182,1392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="10.83203125" style="3"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="10.83203125" style="2"/>
-    <col min="7" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="10.83203125" style="2"/>
-    <col min="10" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="10.83203125" style="2"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="9.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="13" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" style="6"/>
+    <col min="10" max="11" width="10.83203125" style="4"/>
+    <col min="12" max="12" width="13.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="10.83203125" style="11"/>
+    <col min="16" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="10.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="11"/>
+    <col min="19" max="20" width="10.83203125" style="1"/>
+    <col min="21" max="21" width="10.83203125" style="11"/>
+    <col min="22" max="25" width="10.83203125" style="1"/>
+    <col min="26" max="26" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="0.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:30" s="9" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+    </row>
+    <row r="3" spans="1:30" s="9" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:30" s="9" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:30" ht="59" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:30" ht="61" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C6" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="V6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>338</v>
+      </c>
+      <c r="C7" s="13">
+        <v>222.62</v>
+      </c>
+      <c r="D7" s="6">
+        <v>86.58</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2.57</v>
+      </c>
+      <c r="F7" s="7">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="4">
+        <v>-3.5200000000000002E-2</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.1686</v>
+      </c>
+      <c r="L7" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="M7" s="1">
+        <v>15.27</v>
+      </c>
+      <c r="N7" s="4">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
+      <c r="P7" s="1">
+        <v>11.98</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-4.97</v>
+      </c>
+      <c r="T7" s="1">
+        <v>-7.16</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3">
-        <v>338</v>
-      </c>
-      <c r="C2" s="1">
-        <v>14.93</v>
-      </c>
-      <c r="D2" s="1">
-        <v>15.27</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1">
-        <v>11.98</v>
-      </c>
-      <c r="H2" s="1">
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="J2" s="1">
-        <v>-1.71</v>
-      </c>
-      <c r="K2" s="1">
-        <v>-2.8</v>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3">
+        <v>600585</v>
+      </c>
+      <c r="C8" s="13">
+        <v>360.6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>298.14</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.29620000000000002</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.3004</v>
+      </c>
+      <c r="L8" s="1">
+        <v>52.91</v>
+      </c>
+      <c r="M8" s="1">
+        <v>51.46</v>
+      </c>
+      <c r="N8" s="4">
+        <v>-2.7400000000000001E-2</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="1">
+        <v>10.96</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="1">
+        <v>-1.07</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="30" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="3">
+        <v>601628</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3.56E-2</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.37509999999999999</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.39689999999999998</v>
+      </c>
+      <c r="L9" s="1">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="M9" s="1">
+        <v>36.04</v>
+      </c>
+      <c r="N9" s="4">
+        <v>3.44E-2</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="1">
+        <v>368.69</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>-4.3099999999999996</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" s="1">
+        <v>-0.85</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3">
+        <v>600377</v>
+      </c>
+      <c r="C10" s="13">
+        <v>57.15</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43.77</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.306</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.8E-3</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.1764</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.1108</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.52949999999999997</v>
+      </c>
+      <c r="L10" s="1">
+        <v>11.56</v>
+      </c>
+      <c r="M10" s="1">
+        <v>11.06</v>
+      </c>
+      <c r="N10" s="4">
+        <v>-4.3499999999999997E-2</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-2.46</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>6.42</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="S10" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T10" s="1">
+        <v>4.71</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="3">
+        <v>651</v>
+      </c>
+      <c r="C11" s="13">
+        <v>269.41000000000003</v>
+      </c>
+      <c r="D11" s="6">
+        <v>262.02999999999997</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.028</v>
+      </c>
+      <c r="F11" s="4">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="L11" s="1">
+        <v>69.81</v>
+      </c>
+      <c r="M11" s="1">
+        <v>66.66</v>
+      </c>
+      <c r="N11" s="4">
+        <v>-4.5199999999999997E-2</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="1">
+        <v>8.01</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>11.62</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="T11" s="1">
+        <v>6.45</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="3">
+        <v>600900</v>
+      </c>
+      <c r="C12" s="13">
+        <v>397.37</v>
+      </c>
+      <c r="D12" s="6">
+        <v>226.11</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.16309999999999999</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="4">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.66159999999999997</v>
+      </c>
+      <c r="L12" s="1">
+        <v>18.18</v>
+      </c>
+      <c r="M12" s="1">
+        <v>20.07</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.1038</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="T12" s="1">
+        <v>-1.03</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="45" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2707</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.04E-2</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="4">
+        <v>8.72E-2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="L13" s="1">
+        <v>6.63</v>
+      </c>
+      <c r="M13" s="1">
+        <v>6.45</v>
+      </c>
+      <c r="N13" s="4">
+        <v>-2.75E-2</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="1">
+        <v>833.89</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="T13" s="1">
+        <v>5.57</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="3">
+        <v>600703</v>
+      </c>
+      <c r="C14" s="13">
+        <v>33.39</v>
+      </c>
+      <c r="D14" s="6">
+        <v>28.3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.18</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.1764</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.28649999999999998</v>
+      </c>
+      <c r="L14" s="1">
+        <v>19.86</v>
+      </c>
+      <c r="M14" s="1">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="N14" s="4">
+        <v>-0.1409</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="1">
+        <v>-46.09</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>46.44</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="S14" s="1">
+        <v>4.32</v>
+      </c>
+      <c r="T14" s="1">
+        <v>6.67</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2508</v>
+      </c>
+      <c r="C15" s="13">
+        <v>15.09</v>
+      </c>
+      <c r="D15" s="6">
+        <v>14.74</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.0237000000000001</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.25719999999999998</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.26069999999999999</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.51519999999999999</v>
+      </c>
+      <c r="L15" s="1">
+        <v>34.83</v>
+      </c>
+      <c r="M15" s="1">
+        <v>33.619999999999997</v>
+      </c>
+      <c r="N15" s="4">
+        <v>-3.4599999999999999E-2</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="1">
+        <v>8.82</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>11.57</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="S15" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="T15" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="3">
+        <v>600309</v>
+      </c>
+      <c r="C16" s="13">
+        <v>192.57</v>
+      </c>
+      <c r="D16" s="6">
+        <v>106.1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.12529999999999999</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.58179999999999998</v>
+      </c>
+      <c r="L16" s="1">
+        <v>55.07</v>
+      </c>
+      <c r="M16" s="1">
+        <v>55.01</v>
+      </c>
+      <c r="N16" s="4">
+        <v>-1E-3</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="T16" s="1">
+        <v>-1.75</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="30" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="3">
+        <v>601857</v>
+      </c>
+      <c r="C17" s="13">
+        <v>3515.65</v>
+      </c>
+      <c r="D17" s="6">
+        <v>525.85</v>
+      </c>
+      <c r="E17" s="4">
+        <v>6.6856999999999998</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2.92E-2</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="4">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="4">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.38119999999999998</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="M17" s="1">
+        <v>6.43</v>
+      </c>
+      <c r="N17" s="4">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>8.32</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17" s="1">
+        <v>-2.62</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2475</v>
+      </c>
+      <c r="C18" s="13">
+        <v>31.42</v>
+      </c>
+      <c r="D18" s="6">
+        <v>27.23</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.1538999999999999</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.1915</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="4">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="K18" s="4">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>41.83</v>
+      </c>
+      <c r="M18" s="1">
+        <v>35.97</v>
+      </c>
+      <c r="N18" s="1">
+        <v>-14.02</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="1">
+        <v>49.95</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>36.93</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="S18" s="1">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="T18" s="1">
+        <v>18.87</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2271</v>
+      </c>
+      <c r="C19" s="13">
+        <v>10.14</v>
+      </c>
+      <c r="D19" s="6">
+        <v>15.08</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.6724</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.121</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.2064</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.29210000000000003</v>
+      </c>
+      <c r="L19" s="1">
+        <v>26.62</v>
+      </c>
+      <c r="M19" s="1">
+        <v>26.68</v>
+      </c>
+      <c r="N19" s="4">
+        <v>2.3E-3</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="1">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>25.43</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="S19" s="1">
+        <v>-0.49</v>
+      </c>
+      <c r="T19" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="30" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="3">
+        <v>600030</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="4">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="4">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.4516</v>
+      </c>
+      <c r="L20" s="1">
+        <v>25.56</v>
+      </c>
+      <c r="M20" s="1">
+        <v>26.78</v>
+      </c>
+      <c r="N20" s="1">
+        <v>4.76</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" s="1">
+        <v>30.86</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>22.71</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="S20" s="1">
+        <v>-0.54</v>
+      </c>
+      <c r="T20" s="1">
+        <v>-0.39</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="30" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3">
+        <v>600887</v>
+      </c>
+      <c r="C21" s="13">
+        <v>86.25</v>
+      </c>
+      <c r="D21" s="6">
+        <v>63.4</v>
+      </c>
+      <c r="E21" s="6">
+        <v>136.04</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.2429</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="4">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="L21" s="1">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="M21" s="1">
+        <v>34.99</v>
+      </c>
+      <c r="N21" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" s="1">
+        <v>9.52</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>8.65</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="T21" s="1">
+        <v>6.16</v>
+      </c>
+      <c r="U21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="30" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="3">
+        <v>600028</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1758.68</v>
+      </c>
+      <c r="D22" s="6">
+        <v>630.89</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2.7875999999999999</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="4">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="4">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="L22" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="M22" s="1">
+        <v>5.87</v>
+      </c>
+      <c r="N22" s="1">
+        <v>14.21</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="1">
+        <v>-6.1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>7.86</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="S22" s="1">
+        <v>-2.1</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="3">
+        <v>89</v>
+      </c>
+      <c r="C23" s="13">
+        <v>10.55</v>
+      </c>
+      <c r="D23" s="6">
+        <v>6.68</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1.5792999999999999</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="4">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.23180000000000001</v>
+      </c>
+      <c r="L23" s="1">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="M23" s="1">
+        <v>10.25</v>
+      </c>
+      <c r="N23" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="P23" s="1">
+        <v>-0.67</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>20.54</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="W2:AA2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/投资心得/watch-list.xlsx
+++ b/投资心得/watch-list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="228">
   <si>
     <t>证券简称</t>
     <rPh sb="0" eb="1">
@@ -1303,22 +1303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018年分红率／股息率</t>
-    <rPh sb="4" eb="5">
-      <t>nian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>fen hong</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>lü</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>gu xi l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>66.16%／11.86%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1442,6 +1426,292 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>pao m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空</t>
+    <rPh sb="0" eb="1">
+      <t>hang k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国国航</t>
+    <rPh sb="0" eb="1">
+      <t>zhong guo guo hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏航空</t>
+    <rPh sb="0" eb="1">
+      <t>hua xia hang k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.04%／12.48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.45%／6.54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.2%／7.51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋航空</t>
+    <rPh sb="0" eb="1">
+      <t>chun qiu hang k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉祥航空</t>
+    <rPh sb="0" eb="1">
+      <t>ji xiang hang kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.91%／9.91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子设备和仪器</t>
+    <rPh sb="0" eb="1">
+      <t>dian zi she bei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he yi qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康威视</t>
+    <rPh sb="0" eb="1">
+      <t>hai kang wei shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合性石油天然气股票</t>
+    <rPh sb="0" eb="1">
+      <t>zong he xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi you tian ran qi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gu p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三棵树</t>
+    <rPh sb="0" eb="1">
+      <t>san ke shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.52%／15.84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蟒百利</t>
+    <rPh sb="0" eb="1">
+      <t>long mang bai li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73.77%／14.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝丰能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西药</t>
+    <rPh sb="0" eb="1">
+      <t>xi yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+    <rPh sb="0" eb="1">
+      <t>heng rui yi yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发费用管控能力</t>
+    <rPh sb="0" eb="1">
+      <t>yan fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.95%／22.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物科技</t>
+    <rPh sb="0" eb="1">
+      <t>sheng wu ke ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华兰生物</t>
+    <rPh sb="0" eb="1">
+      <t>hua lan sheng wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.83%／22.79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春高新</t>
+    <rPh sb="0" eb="1">
+      <t>chang chun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gao xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.52%／24.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智飞生物</t>
+    <rPh sb="0" eb="1">
+      <t>zhi fei sheng wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.12%／36.52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康泰生物</t>
+    <rPh sb="0" eb="1">
+      <t>kang tai sheng wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.02%／24.66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43,09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安图生物</t>
+    <rPh sb="0" eb="1">
+      <t>an tu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59.73%／30.58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空货运与物流</t>
+  </si>
+  <si>
+    <t>顺丰控股</t>
+    <rPh sb="0" eb="1">
+      <t>shun feng kong gu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韵达快递</t>
+    <rPh sb="0" eb="1">
+      <t>yun da kuai di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆通快递</t>
+    <rPh sb="0" eb="1">
+      <t>yuan tong kuai di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申通快递</t>
+    <rPh sb="0" eb="1">
+      <t>shen tong kuai di</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1539,7 +1809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1560,9 +1830,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1607,19 +1874,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1899,437 +2175,468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR76"/>
+  <dimension ref="A1:AR106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="5" width="9.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="12" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="6"/>
-    <col min="8" max="13" width="10.83203125" style="4"/>
-    <col min="14" max="14" width="10.83203125" style="6"/>
-    <col min="15" max="24" width="10.83203125" style="4"/>
-    <col min="25" max="25" width="10.83203125" style="6"/>
-    <col min="26" max="27" width="10.83203125" style="4"/>
-    <col min="28" max="28" width="13.1640625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="10.83203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.83203125" style="4"/>
-    <col min="31" max="31" width="10.83203125" style="11"/>
-    <col min="32" max="32" width="10.83203125" style="1"/>
-    <col min="33" max="33" width="10.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="10.83203125" style="11"/>
-    <col min="35" max="36" width="10.83203125" style="1"/>
-    <col min="37" max="37" width="10.83203125" style="11"/>
-    <col min="38" max="41" width="10.83203125" style="1"/>
-    <col min="42" max="42" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="0.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="44" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="16" width="10.83203125" style="4"/>
+    <col min="17" max="18" width="10.83203125" style="12"/>
+    <col min="19" max="20" width="10.83203125" style="4"/>
+    <col min="21" max="24" width="10.83203125" style="12"/>
+    <col min="25" max="25" width="10.83203125" style="4"/>
+    <col min="26" max="26" width="10.83203125" style="6"/>
+    <col min="27" max="28" width="10.83203125" style="4"/>
+    <col min="29" max="29" width="13.1640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.83203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.83203125" style="4"/>
+    <col min="32" max="32" width="10.83203125" style="10"/>
+    <col min="33" max="33" width="10.83203125" style="1"/>
+    <col min="34" max="34" width="10.6640625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="10.83203125" style="10"/>
+    <col min="36" max="37" width="10.83203125" style="1"/>
+    <col min="38" max="38" width="10.83203125" style="10"/>
+    <col min="39" max="42" width="10.83203125" style="1"/>
+    <col min="43" max="43" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="0.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="45" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="9" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:42" s="8" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="9" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" s="9" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="R1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+    </row>
+    <row r="2" spans="1:42" s="8" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="8" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="29"/>
+      <c r="R2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:41" s="22" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="S2" s="29"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+    </row>
+    <row r="3" spans="1:42" s="21" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AD3" s="24"/>
-    </row>
-    <row r="4" spans="1:41" s="22" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AE3" s="22"/>
+    </row>
+    <row r="4" spans="1:42" s="21" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AD4" s="24"/>
-    </row>
-    <row r="5" spans="1:41" s="22" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AE4" s="22"/>
+    </row>
+    <row r="5" spans="1:42" s="21" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AD5" s="24"/>
-    </row>
-    <row r="6" spans="1:41" s="22" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AE5" s="22"/>
+    </row>
+    <row r="6" spans="1:42" s="21" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AD6" s="24"/>
-    </row>
-    <row r="7" spans="1:41" s="22" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AE6" s="22"/>
+    </row>
+    <row r="7" spans="1:42" s="21" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AD7" s="24"/>
-    </row>
-    <row r="8" spans="1:41" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AE7" s="22"/>
+    </row>
+    <row r="8" spans="1:42" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="N8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AK8" s="1"/>
-    </row>
-    <row r="9" spans="1:41" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="Z8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AL8" s="1"/>
+    </row>
+    <row r="9" spans="1:42" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>178</v>
+      <c r="C9" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="S9" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="T9" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="U9" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="V9" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="W9" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="X9" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y9" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB9" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="R9" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="S9" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="T9" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="U9" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="V9" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="W9" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="X9" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA9" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB9" s="2" t="s">
+      <c r="AC9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AD9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AD9" s="16" t="s">
+      <c r="AE9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AF9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="2" t="s">
+      <c r="AG9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AH9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AI9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AI9" s="2" t="s">
+      <c r="AJ9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AK9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AK9" s="2" t="s">
+      <c r="AL9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AL9" s="2" t="s">
+      <c r="AM9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AM9" s="1" t="s">
+      <c r="AN9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AN9" s="1" t="s">
+      <c r="AO9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AO9" s="1" t="s">
+      <c r="AP9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:41" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:42" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="20"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
       <c r="Y10" s="20"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AD10" s="21"/>
-    </row>
-    <row r="11" spans="1:41" ht="30" x14ac:dyDescent="0.15">
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AE10" s="20"/>
+    </row>
+    <row r="11" spans="1:42" ht="30" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3">
         <v>338</v>
       </c>
-      <c r="F11" s="13">
+      <c r="C11" s="25"/>
+      <c r="F11" s="12">
         <v>222.62</v>
       </c>
       <c r="G11" s="6">
@@ -2341,63 +2648,66 @@
       <c r="M11" s="4">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="4">
         <v>0.23230000000000001</v>
       </c>
-      <c r="Y11" s="7" t="s">
+      <c r="Z11" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="AA11" s="4">
         <v>-3.5200000000000002E-2</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AB11" s="4">
         <v>0.1686</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AC11" s="1">
         <v>14.93</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AD11" s="1">
         <v>15.27</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AE11" s="4">
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="AE11" s="11" t="s">
+      <c r="AF11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AG11" s="1">
         <v>11.98</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AH11" s="1">
         <v>8.3699999999999992</v>
       </c>
-      <c r="AH11" s="11" t="s">
+      <c r="AI11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AJ11" s="1">
         <v>-4.97</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AK11" s="1">
         <v>-7.16</v>
       </c>
-      <c r="AK11" s="11" t="s">
+      <c r="AL11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AL11" s="1" t="s">
+      <c r="AM11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:42" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B12" s="3">
         <v>600031</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>105.27</v>
       </c>
       <c r="G12" s="6">
@@ -2409,63 +2719,66 @@
       <c r="M12" s="4">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="4">
         <v>0.2147</v>
       </c>
-      <c r="Y12" s="7" t="s">
+      <c r="Z12" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="AA12" s="4">
         <v>-3.5200000000000002E-2</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AB12" s="4">
         <v>0.35399999999999998</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AC12" s="1">
         <v>16.989999999999998</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AD12" s="1">
         <v>18.09</v>
       </c>
-      <c r="AD12" s="4">
+      <c r="AE12" s="4">
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="AE12" s="11" t="s">
+      <c r="AF12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AG12" s="1">
         <v>80.540000000000006</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AH12" s="1">
         <v>15.99</v>
       </c>
-      <c r="AH12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI12" s="1">
+      <c r="AI12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ12" s="1">
         <v>0.59</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AK12" s="1">
         <v>-0.35</v>
       </c>
-      <c r="AK12" s="11" t="s">
+      <c r="AL12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AL12" s="1" t="s">
+      <c r="AM12" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="30" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:42" ht="30" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B13" s="3">
         <v>951</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>18.71</v>
       </c>
       <c r="G13" s="6">
@@ -2477,63 +2790,66 @@
       <c r="M13" s="4">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="4">
         <v>0.15459999999999999</v>
       </c>
-      <c r="Y13" s="7" t="s">
+      <c r="Z13" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="AA13" s="4">
         <v>-3.5200000000000002E-2</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AB13" s="4">
         <v>0.34100000000000003</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AC13" s="1">
         <v>20.91</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AD13" s="1">
         <v>23.21</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AE13" s="4">
         <v>0.1004</v>
       </c>
-      <c r="AE13" s="11" t="s">
+      <c r="AF13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AG13" s="1">
         <v>28.58</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AH13" s="1">
         <v>19.760000000000002</v>
       </c>
-      <c r="AH13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI13" s="1">
+      <c r="AI13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ13" s="1">
         <v>-1.74</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AK13" s="1">
         <v>-7.07</v>
       </c>
-      <c r="AK13" s="11" t="s">
+      <c r="AL13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AL13" s="1" t="s">
+      <c r="AM13" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="30" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:42" ht="30" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B14" s="3">
         <v>603298</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>4.32</v>
       </c>
       <c r="G14" s="6">
@@ -2545,63 +2861,66 @@
       <c r="M14" s="4">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="4">
         <v>0.14879999999999999</v>
       </c>
-      <c r="Y14" s="7" t="s">
+      <c r="Z14" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="AA14" s="4">
         <v>-3.5200000000000002E-2</v>
       </c>
-      <c r="AA14" s="4">
+      <c r="AB14" s="4">
         <v>0.3397</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AC14" s="1">
         <v>13.66</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AD14" s="1">
         <v>14.23</v>
       </c>
-      <c r="AD14" s="4">
+      <c r="AE14" s="4">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="AE14" s="11" t="s">
+      <c r="AF14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AG14" s="1">
         <v>12.86</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AH14" s="1">
         <v>14.88</v>
       </c>
-      <c r="AH14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI14" s="1">
+      <c r="AI14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ14" s="1">
         <v>-0.15</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AK14" s="1">
         <v>5.98</v>
       </c>
-      <c r="AK14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL14" s="1" t="s">
+      <c r="AL14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM14" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="30" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:42" ht="30" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B15" s="3">
         <v>600761</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>6.35</v>
       </c>
       <c r="G15" s="6">
@@ -2613,99 +2932,102 @@
       <c r="M15" s="4">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" s="4">
         <v>0.12790000000000001</v>
       </c>
-      <c r="Y15" s="7" t="s">
+      <c r="Z15" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="AA15" s="4">
         <v>-3.5200000000000002E-2</v>
       </c>
-      <c r="AA15" s="4">
+      <c r="AB15" s="4">
         <v>0.4446</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AC15" s="1">
         <v>10.31</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AD15" s="1">
         <v>11.69</v>
       </c>
-      <c r="AD15" s="4">
+      <c r="AE15" s="4">
         <v>0.1157</v>
       </c>
-      <c r="AE15" s="11" t="s">
+      <c r="AF15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AG15" s="1">
         <v>6.54</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AH15" s="1">
         <v>12.69</v>
       </c>
-      <c r="AH15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI15" s="1">
+      <c r="AI15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ15" s="1">
         <v>6.73</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AK15" s="1">
         <v>5.98</v>
       </c>
-      <c r="AK15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL15" s="1" t="s">
+      <c r="AL15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM15" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="N16" s="7"/>
-      <c r="Y16" s="7"/>
-    </row>
-    <row r="17" spans="1:41" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="Z16" s="7"/>
+    </row>
+    <row r="17" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
       <c r="N17" s="20"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
       <c r="Y17" s="20"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AD17" s="21"/>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AE17" s="20"/>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="3">
         <v>600585</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>360.6</v>
       </c>
       <c r="G18" s="6">
@@ -2720,60 +3042,63 @@
       <c r="N18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="4">
         <v>0.29620000000000002</v>
       </c>
-      <c r="Y18" s="6" t="s">
+      <c r="Z18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="AA18" s="4">
         <v>0.13039999999999999</v>
       </c>
-      <c r="AA18" s="4">
+      <c r="AB18" s="4">
         <v>0.3004</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AC18" s="1">
         <v>52.91</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AD18" s="1">
         <v>51.46</v>
       </c>
-      <c r="AD18" s="4">
+      <c r="AE18" s="4">
         <v>-2.7400000000000001E-2</v>
       </c>
-      <c r="AE18" s="11" t="s">
+      <c r="AF18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AG18" s="1">
         <v>10.96</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AH18" s="1">
         <v>2.6</v>
       </c>
-      <c r="AH18" s="11" t="s">
+      <c r="AI18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AI18" s="1">
+      <c r="AJ18" s="1">
         <v>-1.07</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AK18" s="1">
         <v>0.27</v>
       </c>
-      <c r="AK18" s="11" t="s">
+      <c r="AL18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AL18" s="1" t="s">
+      <c r="AM18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B19" s="3">
         <v>2271</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>10.14</v>
       </c>
       <c r="G19" s="6">
@@ -2785,63 +3110,66 @@
       <c r="M19" s="4">
         <v>0.121</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="4">
         <v>0.2064</v>
       </c>
-      <c r="Y19" s="6" t="s">
+      <c r="Z19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="AA19" s="4">
         <v>0.13039999999999999</v>
       </c>
-      <c r="AA19" s="4">
+      <c r="AB19" s="4">
         <v>0.29210000000000003</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AC19" s="1">
         <v>26.62</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AD19" s="1">
         <v>26.68</v>
       </c>
-      <c r="AD19" s="4">
+      <c r="AE19" s="4">
         <v>2.3E-3</v>
       </c>
-      <c r="AE19" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF19" s="1">
+      <c r="AF19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG19" s="1">
         <v>36.880000000000003</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AH19" s="1">
         <v>25.43</v>
       </c>
-      <c r="AH19" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI19" s="1">
+      <c r="AI19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ19" s="1">
         <v>-0.49</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AK19" s="1">
         <v>2.7</v>
       </c>
-      <c r="AK19" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL19" s="1" t="s">
+      <c r="AL19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM19" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B20" s="3">
         <v>600801</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>79</v>
       </c>
       <c r="G20" s="6">
@@ -2853,63 +3181,66 @@
       <c r="M20" s="4">
         <v>6.2E-2</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="4">
         <v>0.36270000000000002</v>
       </c>
-      <c r="Y20" s="6" t="s">
+      <c r="Z20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="AA20" s="4">
         <v>0.13039999999999999</v>
       </c>
-      <c r="AA20" s="4">
+      <c r="AB20" s="4">
         <v>0.33239999999999997</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AC20" s="1">
         <v>23.73</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AD20" s="1">
         <v>25.63</v>
       </c>
-      <c r="AD20" s="4">
+      <c r="AE20" s="4">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="AE20" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF20" s="1">
+      <c r="AF20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG20" s="1">
         <v>29.36</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AH20" s="1">
         <v>2.98</v>
       </c>
-      <c r="AH20" s="11" t="s">
+      <c r="AI20" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AJ20" s="1">
         <v>-5.76</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AK20" s="1">
         <v>-10.29</v>
       </c>
-      <c r="AK20" s="11" t="s">
+      <c r="AL20" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AL20" s="1" t="s">
+      <c r="AM20" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B21" s="3">
         <v>786</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>27.83</v>
       </c>
       <c r="G21" s="6">
@@ -2921,63 +3252,66 @@
       <c r="M21" s="4">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="4">
         <v>0.1847</v>
       </c>
-      <c r="Y21" s="6" t="s">
+      <c r="Z21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="AA21" s="4">
         <v>0.13039999999999999</v>
       </c>
-      <c r="AA21" s="4">
+      <c r="AB21" s="4">
         <v>0.31519999999999998</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AC21" s="1">
         <v>25.72</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AD21" s="1">
         <v>24.72</v>
       </c>
-      <c r="AD21" s="4">
+      <c r="AE21" s="4">
         <v>-4.5499999999999999E-2</v>
       </c>
-      <c r="AE21" s="11" t="s">
+      <c r="AF21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AG21" s="1">
         <v>-79.209999999999994</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AH21" s="1">
         <v>435.83</v>
       </c>
-      <c r="AH21" s="11" t="s">
+      <c r="AI21" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AJ21" s="1">
         <v>-2.17</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AK21" s="1">
         <v>1.06</v>
       </c>
-      <c r="AK21" s="11" t="s">
+      <c r="AL21" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="AL21" s="1" t="s">
+      <c r="AM21" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B22" s="3">
         <v>600176</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>38.619999999999997</v>
       </c>
       <c r="G22" s="6">
@@ -2989,95 +3323,99 @@
       <c r="M22" s="4">
         <v>3.85E-2</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="N22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="4">
         <v>0.1779</v>
       </c>
-      <c r="Y22" s="6" t="s">
+      <c r="Z22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Z22" s="4">
+      <c r="AA22" s="4">
         <v>0.13039999999999999</v>
       </c>
-      <c r="AA22" s="4">
+      <c r="AB22" s="4">
         <v>0.33189999999999997</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AC22" s="1">
         <v>11.04</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AD22" s="1">
         <v>10.6</v>
       </c>
-      <c r="AD22" s="4">
+      <c r="AE22" s="4">
         <v>-6.2300000000000001E-2</v>
       </c>
-      <c r="AE22" s="11" t="s">
+      <c r="AF22" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AG22" s="1">
         <v>-12.86</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AH22" s="1">
         <v>14.65</v>
       </c>
-      <c r="AH22" s="11" t="s">
+      <c r="AI22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AJ22" s="1">
         <v>3.95</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AK22" s="1">
         <v>1.28</v>
       </c>
-      <c r="AK22" s="11" t="s">
+      <c r="AL22" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="AL22" s="1" t="s">
+      <c r="AM22" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:41" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:42" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A24" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
       <c r="N24" s="20"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
       <c r="Y24" s="20"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AD24" s="21"/>
-    </row>
-    <row r="25" spans="1:41" ht="30" x14ac:dyDescent="0.15">
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AE24" s="20"/>
+    </row>
+    <row r="25" spans="1:42" ht="30" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="3">
         <v>601628</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -3089,95 +3427,99 @@
       <c r="M25" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" s="4">
         <v>3.56E-2</v>
       </c>
-      <c r="Y25" s="6" t="s">
+      <c r="Z25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Z25" s="4">
+      <c r="AA25" s="4">
         <v>0.37509999999999999</v>
       </c>
-      <c r="AA25" s="4">
+      <c r="AB25" s="4">
         <v>0.39689999999999998</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AC25" s="1">
         <v>34.840000000000003</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AD25" s="1">
         <v>36.04</v>
       </c>
-      <c r="AD25" s="4">
+      <c r="AE25" s="4">
         <v>3.44E-2</v>
       </c>
-      <c r="AE25" s="11" t="s">
+      <c r="AF25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AG25" s="1">
         <v>368.69</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AH25" s="1">
         <v>-4.3099999999999996</v>
       </c>
-      <c r="AH25" s="11" t="s">
+      <c r="AI25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AJ25" s="1">
         <v>-0.85</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="AK25" s="1">
         <v>0.09</v>
       </c>
-      <c r="AK25" s="11" t="s">
+      <c r="AL25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AL25" s="1" t="s">
+      <c r="AM25" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:41" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:42" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A27" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
       <c r="N27" s="20"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
       <c r="Y27" s="20"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AD27" s="21"/>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AE27" s="20"/>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="3">
         <v>600377</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="12">
         <v>57.15</v>
       </c>
       <c r="G28" s="6">
@@ -3192,60 +3534,63 @@
       <c r="N28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="4">
         <v>0.1764</v>
       </c>
-      <c r="Y28" s="6" t="s">
+      <c r="Z28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Z28" s="4">
+      <c r="AA28" s="4">
         <v>0.1108</v>
       </c>
-      <c r="AA28" s="4">
+      <c r="AB28" s="4">
         <v>0.52949999999999997</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AC28" s="1">
         <v>11.56</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AD28" s="1">
         <v>11.06</v>
       </c>
-      <c r="AD28" s="4">
+      <c r="AE28" s="4">
         <v>-4.3499999999999997E-2</v>
       </c>
-      <c r="AE28" s="11" t="s">
+      <c r="AF28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AF28" s="1">
+      <c r="AG28" s="1">
         <v>-2.46</v>
       </c>
-      <c r="AG28" s="1">
+      <c r="AH28" s="1">
         <v>6.42</v>
       </c>
-      <c r="AH28" s="11" t="s">
+      <c r="AI28" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AI28" s="1">
+      <c r="AJ28" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AJ28" s="1">
+      <c r="AK28" s="1">
         <v>4.71</v>
       </c>
-      <c r="AK28" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL28" s="1" t="s">
+      <c r="AL28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM28" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B29" s="3">
         <v>600548</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="12">
         <v>32.22</v>
       </c>
       <c r="G29" s="6">
@@ -3260,60 +3605,63 @@
       <c r="N29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="4">
         <v>0.22189999999999999</v>
       </c>
-      <c r="Y29" s="6" t="s">
+      <c r="Z29" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Z29" s="4">
+      <c r="AA29" s="4">
         <v>0.1108</v>
       </c>
-      <c r="AA29" s="4">
+      <c r="AB29" s="4">
         <v>0.4501</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AC29" s="1">
         <v>11.2</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AD29" s="1">
         <v>12.52</v>
       </c>
-      <c r="AD29" s="4">
+      <c r="AE29" s="4">
         <v>0.1182</v>
       </c>
-      <c r="AE29" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF29" s="1">
+      <c r="AF29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG29" s="1">
         <v>-19.100000000000001</v>
       </c>
-      <c r="AG29" s="1">
+      <c r="AH29" s="1">
         <v>-15.28</v>
       </c>
-      <c r="AH29" s="11" t="s">
+      <c r="AI29" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AI29" s="1">
+      <c r="AJ29" s="1">
         <v>-3.11</v>
       </c>
-      <c r="AJ29" s="1">
+      <c r="AK29" s="1">
         <v>-1.1499999999999999</v>
       </c>
-      <c r="AK29" s="11" t="s">
+      <c r="AL29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AL29" s="1" t="s">
+      <c r="AM29" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B30" s="3">
         <v>429</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="12">
         <v>19.16</v>
       </c>
       <c r="G30" s="6">
@@ -3328,211 +3676,224 @@
       <c r="N30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="4">
         <v>0.1802</v>
       </c>
-      <c r="Y30" s="6" t="s">
+      <c r="Z30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Z30" s="4">
+      <c r="AA30" s="4">
         <v>0.1108</v>
       </c>
-      <c r="AA30" s="4">
+      <c r="AB30" s="4">
         <v>0.70069999999999999</v>
       </c>
-      <c r="AB30" s="1">
+      <c r="AC30" s="1">
         <v>8.2200000000000006</v>
       </c>
-      <c r="AC30" s="1">
+      <c r="AD30" s="1">
         <v>9.64</v>
       </c>
-      <c r="AD30" s="4">
+      <c r="AE30" s="4">
         <v>0.17269999999999999</v>
       </c>
-      <c r="AE30" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF30" s="1">
+      <c r="AF30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG30" s="1">
         <v>-16.32</v>
       </c>
-      <c r="AG30" s="1">
+      <c r="AH30" s="1">
         <v>14.04</v>
       </c>
-      <c r="AH30" s="11" t="s">
+      <c r="AI30" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AI30" s="1">
+      <c r="AJ30" s="1">
         <v>-1.79</v>
       </c>
-      <c r="AJ30" s="1">
+      <c r="AK30" s="1">
         <v>0.74</v>
       </c>
-      <c r="AK30" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL30" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="1:41" ht="61" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AL30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="C32" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="L32" s="14" t="s">
+      <c r="L32" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="M32" s="24" t="s">
+      <c r="M32" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="N32" s="25" t="s">
+      <c r="N32" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="O32" s="14" t="s">
+      <c r="O32" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="P32" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P32" s="24" t="s">
+      <c r="Q32" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="Q32" s="24" t="s">
+      <c r="R32" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="R32" s="24" t="s">
+      <c r="S32" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="S32" s="24" t="s">
+      <c r="T32" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="T32" s="24" t="s">
+      <c r="U32" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="U32" s="24" t="s">
+      <c r="V32" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="V32" s="24" t="s">
+      <c r="W32" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="W32" s="24" t="s">
+      <c r="X32" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="X32" s="24" t="s">
+      <c r="Y32" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="Y32" s="10" t="s">
+      <c r="Z32" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Z32" s="14" t="s">
+      <c r="AA32" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AA32" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB32" s="2" t="s">
+      <c r="AB32" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AC32" s="2" t="s">
+      <c r="AD32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AD32" s="16" t="s">
+      <c r="AE32" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AE32" s="2" t="s">
+      <c r="AF32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AF32" s="2" t="s">
+      <c r="AG32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AG32" s="2" t="s">
+      <c r="AH32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AH32" s="2" t="s">
+      <c r="AI32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AI32" s="2" t="s">
+      <c r="AJ32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AJ32" s="2" t="s">
+      <c r="AK32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AK32" s="2" t="s">
+      <c r="AL32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AL32" s="2" t="s">
+      <c r="AM32" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AM32" s="1" t="s">
+      <c r="AN32" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AN32" s="1" t="s">
+      <c r="AO32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AO32" s="1" t="s">
+      <c r="AP32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:38" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:39" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A33" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="18"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
       <c r="N33" s="20"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
       <c r="Y33" s="20"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AD33" s="21"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AE33" s="20"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="3">
         <v>651</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="12">
         <v>269.41000000000003</v>
       </c>
       <c r="G34" s="6">
@@ -3547,60 +3908,63 @@
       <c r="N34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" s="4">
         <v>0.33400000000000002</v>
       </c>
-      <c r="Y34" s="6" t="s">
+      <c r="Z34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Z34" s="4">
+      <c r="AA34" s="4">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="AA34" s="4">
+      <c r="AB34" s="4">
         <v>0.48209999999999997</v>
       </c>
-      <c r="AB34" s="1">
+      <c r="AC34" s="1">
         <v>69.81</v>
       </c>
-      <c r="AC34" s="1">
+      <c r="AD34" s="1">
         <v>66.66</v>
       </c>
-      <c r="AD34" s="4">
+      <c r="AE34" s="4">
         <v>-4.5199999999999997E-2</v>
       </c>
-      <c r="AE34" s="11" t="s">
+      <c r="AF34" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AF34" s="1">
+      <c r="AG34" s="1">
         <v>8.01</v>
       </c>
-      <c r="AG34" s="1">
+      <c r="AH34" s="1">
         <v>11.62</v>
       </c>
-      <c r="AH34" s="11" t="s">
+      <c r="AI34" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AI34" s="1">
+      <c r="AJ34" s="1">
         <v>3.7</v>
       </c>
-      <c r="AJ34" s="1">
+      <c r="AK34" s="1">
         <v>6.45</v>
       </c>
-      <c r="AK34" s="11" t="s">
+      <c r="AL34" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AL34" s="1" t="s">
+      <c r="AM34" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="3">
         <v>2508</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="12">
         <v>15.09</v>
       </c>
       <c r="G35" s="6">
@@ -3612,63 +3976,66 @@
       <c r="M35" s="4">
         <v>0.25719999999999998</v>
       </c>
-      <c r="N35" s="6" t="s">
+      <c r="N35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" s="4">
         <v>0.26069999999999999</v>
       </c>
-      <c r="Y35" s="6" t="s">
+      <c r="Z35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Z35" s="4">
+      <c r="AA35" s="4">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="AA35" s="4">
+      <c r="AB35" s="4">
         <v>0.51519999999999999</v>
       </c>
-      <c r="AB35" s="1">
+      <c r="AC35" s="1">
         <v>34.83</v>
       </c>
-      <c r="AC35" s="1">
+      <c r="AD35" s="1">
         <v>33.619999999999997</v>
       </c>
-      <c r="AD35" s="4">
+      <c r="AE35" s="4">
         <v>-3.4599999999999999E-2</v>
       </c>
-      <c r="AE35" s="11" t="s">
+      <c r="AF35" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AF35" s="1">
+      <c r="AG35" s="1">
         <v>8.82</v>
       </c>
-      <c r="AG35" s="1">
+      <c r="AH35" s="1">
         <v>11.57</v>
       </c>
-      <c r="AH35" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI35" s="1">
+      <c r="AI35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ35" s="1">
         <v>4.25</v>
       </c>
-      <c r="AJ35" s="1">
+      <c r="AK35" s="1">
         <v>2.14</v>
       </c>
-      <c r="AK35" s="11" t="s">
+      <c r="AL35" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AL35" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="AM35" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B36" s="3">
         <v>603868</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="12">
         <v>5.54</v>
       </c>
       <c r="G36" s="6">
@@ -3680,63 +4047,66 @@
       <c r="M36" s="4">
         <v>8.72E-2</v>
       </c>
-      <c r="N36" s="6" t="s">
+      <c r="N36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" s="4">
         <v>0.3372</v>
       </c>
-      <c r="Y36" s="6" t="s">
+      <c r="Z36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Z36" s="4">
+      <c r="AA36" s="4">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="AA36" s="4">
+      <c r="AB36" s="4">
         <v>0.77329999999999999</v>
       </c>
-      <c r="AB36" s="1">
+      <c r="AC36" s="1">
         <v>39.33</v>
       </c>
-      <c r="AC36" s="1">
+      <c r="AD36" s="1">
         <v>38.35</v>
       </c>
-      <c r="AD36" s="4">
+      <c r="AE36" s="4">
         <v>-2.4799999999999999E-2</v>
       </c>
-      <c r="AE36" s="11" t="s">
+      <c r="AF36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AF36" s="1">
+      <c r="AG36" s="1">
         <v>-7.72</v>
       </c>
-      <c r="AG36" s="1">
+      <c r="AH36" s="1">
         <v>6.39</v>
       </c>
-      <c r="AH36" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI36" s="1">
+      <c r="AI36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ36" s="1">
         <v>2.72</v>
       </c>
-      <c r="AJ36" s="1">
+      <c r="AK36" s="1">
         <v>5.58</v>
       </c>
-      <c r="AK36" s="11" t="s">
+      <c r="AL36" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AL36" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="AM36" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B37" s="3">
         <v>603868</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="12">
         <v>278.61</v>
       </c>
       <c r="G37" s="6">
@@ -3748,63 +4118,66 @@
       <c r="M37" s="4">
         <v>0.1187</v>
       </c>
-      <c r="N37" s="6" t="s">
+      <c r="N37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" s="4">
         <v>0.25800000000000001</v>
       </c>
-      <c r="Y37" s="6" t="s">
+      <c r="Z37" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Z37" s="4">
+      <c r="AA37" s="4">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="AA37" s="4">
+      <c r="AB37" s="4">
         <v>0.42320000000000002</v>
       </c>
-      <c r="AB37" s="1">
+      <c r="AC37" s="1">
         <v>59.88</v>
       </c>
-      <c r="AC37" s="1">
+      <c r="AD37" s="1">
         <v>65.290000000000006</v>
       </c>
-      <c r="AD37" s="4">
+      <c r="AE37" s="4">
         <v>9.0300000000000005E-2</v>
       </c>
-      <c r="AE37" s="11" t="s">
+      <c r="AF37" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AF37" s="1">
+      <c r="AG37" s="1">
         <v>17.36</v>
       </c>
-      <c r="AG37" s="1">
+      <c r="AH37" s="1">
         <v>14.1</v>
       </c>
-      <c r="AH37" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI37" s="1">
+      <c r="AI37" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ37" s="1">
         <v>3.15</v>
       </c>
-      <c r="AJ37" s="1">
+      <c r="AK37" s="1">
         <v>2.83</v>
       </c>
-      <c r="AK37" s="11" t="s">
+      <c r="AL37" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AL37" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="AM37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B38" s="3">
         <v>2032</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="12">
         <v>20.14</v>
       </c>
       <c r="G38" s="6">
@@ -3816,63 +4189,66 @@
       <c r="M38" s="4">
         <v>0.15759999999999999</v>
       </c>
-      <c r="N38" s="6" t="s">
+      <c r="N38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38" s="4">
         <v>0.30070000000000002</v>
       </c>
-      <c r="Y38" s="6" t="s">
+      <c r="Z38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Z38" s="4">
+      <c r="AA38" s="4">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="AA38" s="4">
+      <c r="AB38" s="4">
         <v>0.72770000000000001</v>
       </c>
-      <c r="AB38" s="1">
+      <c r="AC38" s="1">
         <v>74.150000000000006</v>
       </c>
-      <c r="AC38" s="1">
+      <c r="AD38" s="1">
         <v>79.19</v>
       </c>
-      <c r="AD38" s="4">
+      <c r="AE38" s="4">
         <v>7.0400000000000004E-2</v>
       </c>
-      <c r="AE38" s="11" t="s">
+      <c r="AF38" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AG38" s="1">
         <v>15.68</v>
       </c>
-      <c r="AG38" s="1">
+      <c r="AH38" s="1">
         <v>16.559999999999999</v>
       </c>
-      <c r="AH38" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI38" s="1">
+      <c r="AI38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ38" s="1">
         <v>-0.53</v>
       </c>
-      <c r="AJ38" s="1">
+      <c r="AK38" s="1">
         <v>-3.43</v>
       </c>
-      <c r="AK38" s="11" t="s">
+      <c r="AL38" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AL38" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="AM38" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B39" s="3">
         <v>600690</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <v>189.34</v>
       </c>
       <c r="G39" s="6">
@@ -3884,98 +4260,102 @@
       <c r="M39" s="4">
         <v>0.15629999999999999</v>
       </c>
-      <c r="N39" s="6" t="s">
+      <c r="N39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" s="4">
         <v>0.20780000000000001</v>
       </c>
-      <c r="Y39" s="6" t="s">
+      <c r="Z39" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Z39" s="4">
+      <c r="AA39" s="4">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="AA39" s="4">
+      <c r="AB39" s="4">
         <v>0.28770000000000001</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AC39" s="1">
         <v>19.71</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="AD39" s="1">
         <v>20.64</v>
       </c>
-      <c r="AD39" s="4">
+      <c r="AE39" s="4">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="AE39" s="11" t="s">
+      <c r="AF39" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AF39" s="1">
+      <c r="AG39" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="AG39" s="1">
+      <c r="AH39" s="1">
         <v>5</v>
       </c>
-      <c r="AH39" s="11" t="s">
+      <c r="AI39" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="AI39" s="1">
+      <c r="AJ39" s="1">
         <v>2.5</v>
       </c>
-      <c r="AJ39" s="1">
+      <c r="AK39" s="1">
         <v>1.08</v>
       </c>
-      <c r="AK39" s="11" t="s">
+      <c r="AL39" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AL39" s="1" t="s">
+      <c r="AM39" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:38" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="18"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
       <c r="N41" s="20"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
       <c r="Y41" s="20"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AD41" s="21"/>
-    </row>
-    <row r="42" spans="1:38" ht="30" x14ac:dyDescent="0.15">
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AE41" s="20"/>
+    </row>
+    <row r="42" spans="1:39" ht="30" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B42" s="3">
         <v>600900</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="12">
         <v>397.37</v>
       </c>
       <c r="G42" s="6">
@@ -3990,60 +4370,63 @@
       <c r="N42" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" s="4">
         <v>0.16309999999999999</v>
       </c>
-      <c r="Y42" s="6" t="s">
+      <c r="Z42" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Z42" s="4">
+      <c r="AA42" s="4">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="AA42" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB42" s="1">
+      <c r="AB42" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC42" s="1">
         <v>18.18</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="AD42" s="1">
         <v>20.07</v>
       </c>
-      <c r="AD42" s="4">
+      <c r="AE42" s="4">
         <v>0.1038</v>
       </c>
-      <c r="AE42" s="11" t="s">
+      <c r="AF42" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AF42" s="1">
+      <c r="AG42" s="1">
         <v>0.88</v>
       </c>
-      <c r="AG42" s="1">
+      <c r="AH42" s="1">
         <v>1.19</v>
       </c>
-      <c r="AH42" s="11" t="s">
+      <c r="AI42" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AI42" s="1">
+      <c r="AJ42" s="1">
         <v>-0.05</v>
       </c>
-      <c r="AJ42" s="1">
+      <c r="AK42" s="1">
         <v>-1.03</v>
       </c>
-      <c r="AK42" s="11" t="s">
+      <c r="AL42" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AL42" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:38" ht="30" x14ac:dyDescent="0.15">
+      <c r="AM42" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" ht="30" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B43" s="3">
         <v>600674</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="12">
         <v>4.17</v>
       </c>
       <c r="G43" s="6">
@@ -4058,60 +4441,63 @@
       <c r="N43" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P43" s="4">
         <v>0.15090000000000001</v>
       </c>
-      <c r="Y43" s="6" t="s">
+      <c r="Z43" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Z43" s="4">
+      <c r="AA43" s="4">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="AA43" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB43" s="1">
+      <c r="AB43" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC43" s="1">
         <v>9.3800000000000008</v>
       </c>
-      <c r="AC43" s="1">
+      <c r="AD43" s="1">
         <v>11.39</v>
       </c>
-      <c r="AD43" s="4">
+      <c r="AE43" s="4">
         <v>0.21429999999999999</v>
       </c>
-      <c r="AE43" s="11" t="s">
+      <c r="AF43" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AF43" s="1">
+      <c r="AG43" s="1">
         <v>-17.91</v>
       </c>
-      <c r="AG43" s="1">
+      <c r="AH43" s="1">
         <v>12.26</v>
       </c>
-      <c r="AH43" s="11" t="s">
+      <c r="AI43" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AI43" s="1">
+      <c r="AJ43" s="1">
         <v>-3.99</v>
       </c>
-      <c r="AJ43" s="1">
+      <c r="AK43" s="1">
         <v>-4.7699999999999996</v>
       </c>
-      <c r="AK43" s="11" t="s">
+      <c r="AL43" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AL43" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:38" ht="30" x14ac:dyDescent="0.15">
+      <c r="AM43" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" ht="30" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B44" s="3">
         <v>600886</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="12">
         <v>192.19</v>
       </c>
       <c r="G44" s="6">
@@ -4126,95 +4512,96 @@
       <c r="N44" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44" s="4">
         <v>0.16309999999999999</v>
       </c>
-      <c r="Y44" s="6" t="s">
+      <c r="Z44" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Z44" s="4">
+      <c r="AA44" s="4">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="AA44" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB44" s="1">
+      <c r="AB44" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC44" s="1">
         <v>8.93</v>
       </c>
-      <c r="AC44" s="1">
+      <c r="AD44" s="1">
         <v>10.98</v>
       </c>
-      <c r="AD44" s="4">
+      <c r="AE44" s="4">
         <v>0.2293</v>
       </c>
-      <c r="AE44" s="11" t="s">
+      <c r="AF44" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AF44" s="1">
+      <c r="AG44" s="1">
         <v>13.33</v>
       </c>
-      <c r="AG44" s="1">
+      <c r="AH44" s="1">
         <v>4.41</v>
       </c>
-      <c r="AH44" s="11" t="s">
+      <c r="AI44" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AI44" s="1">
+      <c r="AJ44" s="1">
         <v>1.02</v>
       </c>
-      <c r="AJ44" s="1">
+      <c r="AK44" s="1">
         <v>-2.72</v>
       </c>
-      <c r="AK44" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL44" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="N45" s="4"/>
-    </row>
-    <row r="46" spans="1:38" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A46" s="17" t="s">
+      <c r="AL44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM44" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A46" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="18"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
       <c r="N46" s="20"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
       <c r="Y46" s="20"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
-      <c r="AD46" s="21"/>
-    </row>
-    <row r="47" spans="1:38" ht="45" x14ac:dyDescent="0.15">
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AE46" s="20"/>
+    </row>
+    <row r="47" spans="1:39" ht="45" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B47" s="3">
         <v>2707</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="12" t="s">
         <v>95</v>
       </c>
       <c r="G47" s="6">
@@ -4229,60 +4616,63 @@
       <c r="N47" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O47" s="4">
+      <c r="O47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47" s="4">
         <v>1.04E-2</v>
       </c>
-      <c r="Y47" s="6" t="s">
+      <c r="Z47" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="Z47" s="4">
+      <c r="AA47" s="4">
         <v>8.72E-2</v>
       </c>
-      <c r="AA47" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB47" s="1">
+      <c r="AB47" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC47" s="1">
         <v>6.63</v>
       </c>
-      <c r="AC47" s="1">
+      <c r="AD47" s="1">
         <v>6.45</v>
       </c>
-      <c r="AD47" s="4">
+      <c r="AE47" s="4">
         <v>-2.75E-2</v>
       </c>
-      <c r="AE47" s="11" t="s">
+      <c r="AF47" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF47" s="1">
+      <c r="AG47" s="1">
         <v>833.89</v>
       </c>
-      <c r="AG47" s="1">
+      <c r="AH47" s="1">
         <v>18.739999999999998</v>
       </c>
-      <c r="AH47" s="11" t="s">
+      <c r="AI47" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AI47" s="1">
+      <c r="AJ47" s="1">
         <v>0.3</v>
       </c>
-      <c r="AJ47" s="1">
+      <c r="AK47" s="1">
         <v>5.57</v>
       </c>
-      <c r="AK47" s="11" t="s">
+      <c r="AL47" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AL47" s="1" t="s">
+      <c r="AM47" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="45" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:39" ht="45" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B48" s="3">
         <v>2707</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="12" t="s">
         <v>95</v>
       </c>
       <c r="G48" s="6">
@@ -4297,60 +4687,63 @@
       <c r="N48" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O48" s="4">
+      <c r="O48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P48" s="4">
         <v>1.04E-2</v>
       </c>
-      <c r="Y48" s="6" t="s">
+      <c r="Z48" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="Z48" s="4">
+      <c r="AA48" s="4">
         <v>8.72E-2</v>
       </c>
-      <c r="AA48" s="4">
+      <c r="AB48" s="4">
         <v>0.85799999999999998</v>
       </c>
-      <c r="AB48" s="1">
+      <c r="AC48" s="1">
         <v>6.63</v>
       </c>
-      <c r="AC48" s="1">
+      <c r="AD48" s="1">
         <v>6.45</v>
       </c>
-      <c r="AD48" s="4">
+      <c r="AE48" s="4">
         <v>-2.75E-2</v>
       </c>
-      <c r="AE48" s="11" t="s">
+      <c r="AF48" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF48" s="1">
+      <c r="AG48" s="1">
         <v>833.89</v>
       </c>
-      <c r="AG48" s="1">
+      <c r="AH48" s="1">
         <v>18.739999999999998</v>
       </c>
-      <c r="AH48" s="11" t="s">
+      <c r="AI48" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AI48" s="1">
+      <c r="AJ48" s="1">
         <v>0.3</v>
       </c>
-      <c r="AJ48" s="1">
+      <c r="AK48" s="1">
         <v>5.57</v>
       </c>
-      <c r="AK48" s="11" t="s">
+      <c r="AL48" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AL48" s="1" t="s">
+      <c r="AM48" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="45" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:42" ht="45" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="3">
         <v>2707</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="12" t="s">
         <v>95</v>
       </c>
       <c r="G49" s="6">
@@ -4365,95 +4758,96 @@
       <c r="N49" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P49" s="4">
         <v>1.04E-2</v>
       </c>
-      <c r="Y49" s="6" t="s">
+      <c r="Z49" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="Z49" s="4">
+      <c r="AA49" s="4">
         <v>8.72E-2</v>
       </c>
-      <c r="AA49" s="4">
+      <c r="AB49" s="4">
         <v>0.85799999999999998</v>
       </c>
-      <c r="AB49" s="1">
+      <c r="AC49" s="1">
         <v>6.63</v>
       </c>
-      <c r="AC49" s="1">
+      <c r="AD49" s="1">
         <v>6.45</v>
       </c>
-      <c r="AD49" s="4">
+      <c r="AE49" s="4">
         <v>-2.75E-2</v>
       </c>
-      <c r="AE49" s="11" t="s">
+      <c r="AF49" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF49" s="1">
+      <c r="AG49" s="1">
         <v>833.89</v>
       </c>
-      <c r="AG49" s="1">
+      <c r="AH49" s="1">
         <v>18.739999999999998</v>
       </c>
-      <c r="AH49" s="11" t="s">
+      <c r="AI49" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AI49" s="1">
+      <c r="AJ49" s="1">
         <v>0.3</v>
       </c>
-      <c r="AJ49" s="1">
+      <c r="AK49" s="1">
         <v>5.57</v>
       </c>
-      <c r="AK49" s="11" t="s">
+      <c r="AL49" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AL49" s="1" t="s">
+      <c r="AM49" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="N50" s="4"/>
-    </row>
-    <row r="51" spans="1:38" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="17" t="s">
+    <row r="51" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="18"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
       <c r="N51" s="20"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
       <c r="Y51" s="20"/>
-      <c r="Z51" s="21"/>
-      <c r="AA51" s="21"/>
-      <c r="AD51" s="21"/>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="20"/>
+      <c r="AE51" s="20"/>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52" s="3">
         <v>600703</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="12">
         <v>33.39</v>
       </c>
       <c r="G52" s="6">
@@ -4465,63 +4859,66 @@
       <c r="M52" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="N52" s="6" t="s">
+      <c r="N52" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O52" s="4">
+      <c r="O52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P52" s="4">
         <v>0.13800000000000001</v>
       </c>
-      <c r="Y52" s="6" t="s">
+      <c r="Z52" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Z52" s="4">
+      <c r="AA52" s="4">
         <v>0.1764</v>
       </c>
-      <c r="AA52" s="4">
+      <c r="AB52" s="4">
         <v>0.28649999999999998</v>
       </c>
-      <c r="AB52" s="1">
+      <c r="AC52" s="1">
         <v>19.86</v>
       </c>
-      <c r="AC52" s="1">
+      <c r="AD52" s="1">
         <v>17.059999999999999</v>
       </c>
-      <c r="AD52" s="4">
+      <c r="AE52" s="4">
         <v>-0.1409</v>
       </c>
-      <c r="AE52" s="11" t="s">
+      <c r="AF52" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF52" s="1">
+      <c r="AG52" s="1">
         <v>-46.09</v>
       </c>
-      <c r="AG52" s="1">
+      <c r="AH52" s="1">
         <v>46.44</v>
       </c>
-      <c r="AH52" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI52" s="1">
+      <c r="AI52" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ52" s="1">
         <v>4.32</v>
       </c>
-      <c r="AJ52" s="1">
+      <c r="AK52" s="1">
         <v>6.67</v>
       </c>
-      <c r="AK52" s="11" t="s">
+      <c r="AL52" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AL52" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="AM52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B53" s="3">
         <v>300782</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="12">
         <v>1.34</v>
       </c>
       <c r="G53" s="6">
@@ -4533,63 +4930,66 @@
       <c r="M53" s="4">
         <v>4.82E-2</v>
       </c>
-      <c r="N53" s="6" t="s">
+      <c r="N53" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P53" s="4">
         <v>0.41320000000000001</v>
       </c>
-      <c r="Y53" s="6" t="s">
+      <c r="Z53" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Z53" s="4">
+      <c r="AA53" s="4">
         <v>0.1764</v>
       </c>
-      <c r="AA53" s="4" t="s">
+      <c r="AB53" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AB53" s="1">
+      <c r="AC53" s="1">
         <v>433.73</v>
       </c>
-      <c r="AC53" s="1">
+      <c r="AD53" s="1">
         <v>422.57</v>
       </c>
-      <c r="AD53" s="4">
+      <c r="AE53" s="4">
         <v>-2.5700000000000001E-2</v>
       </c>
-      <c r="AE53" s="11" t="s">
+      <c r="AF53" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF53" s="1">
+      <c r="AG53" s="1">
         <v>183.77</v>
       </c>
-      <c r="AG53" s="1">
+      <c r="AH53" s="1">
         <v>53.39</v>
       </c>
-      <c r="AH53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI53" s="1">
+      <c r="AI53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ53" s="1">
         <v>6.1</v>
       </c>
-      <c r="AJ53" s="26">
+      <c r="AK53" s="23">
         <v>5.69</v>
       </c>
-      <c r="AK53" s="11" t="s">
+      <c r="AL53" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AL53" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="AM53" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B54" s="3">
         <v>603160</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="12">
         <v>12.32</v>
       </c>
       <c r="G54" s="6">
@@ -4601,63 +5001,66 @@
       <c r="M54" s="4">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="N54" s="6" t="s">
+      <c r="N54" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O54" s="4">
+      <c r="O54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P54" s="4">
         <v>0.1956</v>
       </c>
-      <c r="Y54" s="6" t="s">
+      <c r="Z54" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Z54" s="4">
+      <c r="AA54" s="4">
         <v>0.1764</v>
       </c>
-      <c r="AA54" s="4">
+      <c r="AB54" s="4">
         <v>0.30759999999999998</v>
       </c>
-      <c r="AB54" s="1">
+      <c r="AC54" s="1">
         <v>268.2</v>
       </c>
-      <c r="AC54" s="1">
+      <c r="AD54" s="1">
         <v>238</v>
       </c>
-      <c r="AD54" s="4">
+      <c r="AE54" s="4">
         <v>-0.11260000000000001</v>
       </c>
-      <c r="AE54" s="11" t="s">
+      <c r="AF54" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF54" s="1">
+      <c r="AG54" s="1">
         <v>200</v>
       </c>
-      <c r="AG54" s="1">
+      <c r="AH54" s="1">
         <v>18.07</v>
       </c>
-      <c r="AH54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI54" s="1">
+      <c r="AI54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ54" s="1">
         <v>6.1</v>
       </c>
-      <c r="AJ54" s="26">
+      <c r="AK54" s="23">
         <v>28</v>
       </c>
-      <c r="AK54" s="11" t="s">
+      <c r="AL54" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AL54" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="AM54" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B55" s="3">
         <v>603501</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="12">
         <v>0.05</v>
       </c>
       <c r="G55" s="6">
@@ -4669,131 +5072,137 @@
       <c r="M55" s="4">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="N55" s="6" t="s">
+      <c r="N55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O55" s="4">
+      <c r="O55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P55" s="4">
         <v>9.8599999999999993E-2</v>
       </c>
-      <c r="Y55" s="6" t="s">
+      <c r="Z55" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Z55" s="4">
+      <c r="AA55" s="4">
         <v>0.1764</v>
       </c>
-      <c r="AA55" s="4">
+      <c r="AB55" s="4">
         <v>0.59099999999999997</v>
       </c>
-      <c r="AB55" s="1">
+      <c r="AC55" s="1">
         <v>177.05</v>
       </c>
-      <c r="AC55" s="1">
+      <c r="AD55" s="1">
         <v>146.55000000000001</v>
       </c>
-      <c r="AD55" s="4">
+      <c r="AE55" s="4">
         <v>-0.17230000000000001</v>
       </c>
-      <c r="AE55" s="11" t="s">
+      <c r="AF55" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF55" s="1">
+      <c r="AG55" s="1">
         <v>337.93</v>
       </c>
-      <c r="AG55" s="1">
+      <c r="AH55" s="1">
         <v>208.85</v>
       </c>
-      <c r="AH55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI55" s="1">
+      <c r="AI55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ55" s="1">
         <v>27.66</v>
       </c>
-      <c r="AJ55" s="26">
+      <c r="AK55" s="23">
         <v>23.47</v>
       </c>
-      <c r="AK55" s="11" t="s">
+      <c r="AL55" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AL55" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:38" ht="30" x14ac:dyDescent="0.15">
+      <c r="AM55" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" ht="30" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B56" s="3">
         <v>601102</v>
       </c>
-      <c r="F56" s="13" t="s">
-        <v>169</v>
+      <c r="F56" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="G56" s="6">
         <v>25.58</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M56" s="4">
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="N56" s="6" t="s">
+      <c r="N56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O56" s="4">
+      <c r="O56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P56" s="4">
         <v>0.16689999999999999</v>
       </c>
-      <c r="Y56" s="6" t="s">
+      <c r="Z56" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Z56" s="4">
+      <c r="AA56" s="4">
         <v>0.1764</v>
       </c>
-      <c r="AA56" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB56" s="1">
+      <c r="AB56" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC56" s="1">
         <v>28.68</v>
       </c>
-      <c r="AC56" s="1">
+      <c r="AD56" s="1">
         <v>31.24</v>
       </c>
-      <c r="AD56" s="4">
+      <c r="AE56" s="4">
         <v>8.9300000000000004E-2</v>
       </c>
-      <c r="AE56" s="11" t="s">
+      <c r="AF56" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG56" s="1">
+        <v>92.15</v>
+      </c>
+      <c r="AH56" s="1">
+        <v>29.12</v>
+      </c>
+      <c r="AI56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ56" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AK56" s="23">
+        <v>15.51</v>
+      </c>
+      <c r="AL56" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM56" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42" ht="30" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="AF56" s="1">
-        <v>92.15</v>
-      </c>
-      <c r="AG56" s="1">
-        <v>29.12</v>
-      </c>
-      <c r="AH56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI56" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="AJ56" s="26">
-        <v>15.51</v>
-      </c>
-      <c r="AK56" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL56" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:38" ht="30" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="B57" s="3">
         <v>603986</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="12">
         <v>3.47</v>
       </c>
       <c r="G57" s="6">
@@ -4802,740 +5211,3108 @@
       <c r="H57" s="4">
         <v>0.85680000000000001</v>
       </c>
-      <c r="M57" s="27">
+      <c r="M57" s="24">
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="N57" s="6" t="s">
+      <c r="N57" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O57" s="4">
+      <c r="O57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P57" s="4">
         <v>0.22170000000000001</v>
       </c>
-      <c r="Y57" s="6" t="s">
+      <c r="Z57" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Z57" s="4">
+      <c r="AA57" s="4">
         <v>0.1764</v>
       </c>
-      <c r="AA57" s="27" t="s">
+      <c r="AB57" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>256.18</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>178.64</v>
+      </c>
+      <c r="AE57" s="4">
+        <v>-0.30270000000000002</v>
+      </c>
+      <c r="AF57" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG57" s="1">
+        <v>54.49</v>
+      </c>
+      <c r="AH57" s="1">
+        <v>51.59</v>
+      </c>
+      <c r="AI57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ57" s="1">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="AK57" s="23">
+        <v>25.03</v>
+      </c>
+      <c r="AL57" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM57" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="AB57" s="1">
-        <v>256.18</v>
-      </c>
-      <c r="AC57" s="1">
-        <v>178.64</v>
-      </c>
-      <c r="AD57" s="4">
-        <v>-0.30270000000000002</v>
-      </c>
-      <c r="AE57" s="11" t="s">
+      <c r="D59" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M59" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="N59" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="O59" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="P59" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q59" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="R59" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="S59" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="T59" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="U59" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="V59" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="W59" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="X59" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y59" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z59" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA59" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB59" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE59" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM59" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP59" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A60" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="18"/>
+      <c r="V60" s="18"/>
+      <c r="W60" s="18"/>
+      <c r="X60" s="18"/>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="19"/>
+      <c r="AA60" s="20"/>
+      <c r="AB60" s="20"/>
+      <c r="AE60" s="20"/>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2475</v>
+      </c>
+      <c r="F61" s="12">
+        <v>31.42</v>
+      </c>
+      <c r="G61" s="6">
+        <v>27.23</v>
+      </c>
+      <c r="H61" s="4">
+        <v>1.1538999999999999</v>
+      </c>
+      <c r="M61" s="4">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="N61" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF57" s="1">
-        <v>54.49</v>
-      </c>
-      <c r="AG57" s="1">
-        <v>51.59</v>
-      </c>
-      <c r="AH57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI57" s="1">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="AJ57" s="26">
-        <v>25.03</v>
-      </c>
-      <c r="AK57" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL57" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:38" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A59" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="21"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="21"/>
-      <c r="W59" s="21"/>
-      <c r="X59" s="21"/>
-      <c r="Y59" s="20"/>
-      <c r="Z59" s="21"/>
-      <c r="AA59" s="21"/>
-      <c r="AD59" s="21"/>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="3">
-        <v>2475</v>
-      </c>
-      <c r="F60" s="13">
-        <v>31.42</v>
-      </c>
-      <c r="G60" s="6">
-        <v>27.23</v>
-      </c>
-      <c r="H60" s="4">
-        <v>1.1538999999999999</v>
-      </c>
-      <c r="M60" s="4">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="N60" s="6" t="s">
+      <c r="O61" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O60" s="4">
+      <c r="P61" s="4">
         <v>0.1915</v>
       </c>
-      <c r="Y60" s="6" t="s">
+      <c r="Z61" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="Z60" s="4">
+      <c r="AA61" s="4">
         <v>6.6100000000000006E-2</v>
       </c>
-      <c r="AA60" s="4">
+      <c r="AB61" s="4">
         <v>7.5600000000000001E-2</v>
       </c>
-      <c r="AB60" s="1">
+      <c r="AC61" s="1">
         <v>41.83</v>
       </c>
-      <c r="AC60" s="1">
+      <c r="AD61" s="1">
         <v>35.97</v>
       </c>
-      <c r="AD60" s="4">
+      <c r="AE61" s="4">
         <v>-0.14019999999999999</v>
       </c>
-      <c r="AE60" s="11" t="s">
+      <c r="AF61" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF60" s="1">
+      <c r="AG61" s="1">
         <v>49.95</v>
       </c>
-      <c r="AG60" s="1">
+      <c r="AH61" s="1">
         <v>36.93</v>
       </c>
-      <c r="AH60" s="11" t="s">
+      <c r="AI61" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AI60" s="1">
+      <c r="AJ61" s="1">
         <v>9.2200000000000006</v>
       </c>
-      <c r="AJ60" s="1">
+      <c r="AK61" s="1">
         <v>18.87</v>
       </c>
-      <c r="AK60" s="11" t="s">
+      <c r="AL61" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AL60" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:38" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A62" s="17" t="s">
+      <c r="AM61" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:42" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A63" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="18"/>
+      <c r="V63" s="18"/>
+      <c r="W63" s="18"/>
+      <c r="X63" s="18"/>
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="19"/>
+      <c r="AA63" s="20"/>
+      <c r="AB63" s="20"/>
+      <c r="AE63" s="20"/>
+    </row>
+    <row r="64" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2415</v>
+      </c>
+      <c r="C64" s="12">
+        <v>28.24</v>
+      </c>
+      <c r="D64" s="12">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="F64" s="12">
+        <v>91.14</v>
+      </c>
+      <c r="G64" s="6">
+        <v>113.53</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0.80279999999999996</v>
+      </c>
+      <c r="M64" s="4">
+        <v>0.1183</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P64" s="24">
+        <v>0.1915</v>
+      </c>
+      <c r="Z64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA64" s="4">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="AB64" s="4">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>41.83</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>35.97</v>
+      </c>
+      <c r="AE64" s="4">
+        <v>-0.14019999999999999</v>
+      </c>
+      <c r="AF64" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>49.95</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>36.93</v>
+      </c>
+      <c r="AI64" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ64" s="1">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="AK64" s="1">
+        <v>18.87</v>
+      </c>
+      <c r="AL64" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM64" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:39" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A66" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="21"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="21"/>
-      <c r="W62" s="21"/>
-      <c r="X62" s="21"/>
-      <c r="Y62" s="20"/>
-      <c r="Z62" s="21"/>
-      <c r="AA62" s="21"/>
-      <c r="AD62" s="21"/>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="18"/>
+      <c r="V66" s="18"/>
+      <c r="W66" s="18"/>
+      <c r="X66" s="18"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="19"/>
+      <c r="AA66" s="20"/>
+      <c r="AB66" s="20"/>
+      <c r="AE66" s="20"/>
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B67" s="3">
         <v>600309</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F67" s="12">
         <v>192.57</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G67" s="6">
         <v>106.1</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H67" s="4">
         <v>1.8149999999999999</v>
       </c>
-      <c r="M63" s="4">
+      <c r="M67" s="4">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="N63" s="6" t="s">
+      <c r="N67" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O63" s="4">
+      <c r="O67" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P67" s="4">
         <v>0.34749999999999998</v>
       </c>
-      <c r="Y63" s="6" t="s">
+      <c r="Z67" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z63" s="4">
+      <c r="AA67" s="4">
         <v>0.12529999999999999</v>
       </c>
-      <c r="AA63" s="4">
+      <c r="AB67" s="4">
         <v>0.58179999999999998</v>
       </c>
-      <c r="AB63" s="1">
+      <c r="AC67" s="1">
         <v>55.07</v>
       </c>
-      <c r="AC63" s="1">
+      <c r="AD67" s="1">
         <v>55.01</v>
       </c>
-      <c r="AD63" s="4">
+      <c r="AE67" s="4">
         <v>-1E-3</v>
       </c>
-      <c r="AE63" s="11" t="s">
+      <c r="AF67" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AF63" s="1">
+      <c r="AG67" s="1">
         <v>0.22</v>
       </c>
-      <c r="AG63" s="1">
+      <c r="AH67" s="1">
         <v>17.329999999999998</v>
       </c>
-      <c r="AH63" s="11" t="s">
+      <c r="AI67" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AI63" s="1">
+      <c r="AJ67" s="1">
         <v>0.53</v>
       </c>
-      <c r="AJ63" s="1">
+      <c r="AK67" s="1">
         <v>-1.75</v>
       </c>
-      <c r="AK63" s="11" t="s">
+      <c r="AL67" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AL63" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:38" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A65" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
-      <c r="U65" s="21"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="21"/>
-      <c r="X65" s="21"/>
-      <c r="Y65" s="20"/>
-      <c r="Z65" s="21"/>
-      <c r="AA65" s="21"/>
-      <c r="AD65" s="21"/>
-    </row>
-    <row r="66" spans="1:38" ht="30" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="3">
-        <v>601857</v>
-      </c>
-      <c r="F66" s="13">
-        <v>3515.65</v>
-      </c>
-      <c r="G66" s="6">
-        <v>525.85</v>
-      </c>
-      <c r="H66" s="4">
-        <v>6.6856999999999998</v>
-      </c>
-      <c r="M66" s="4">
-        <v>2.92E-2</v>
-      </c>
-      <c r="N66" s="6" t="s">
+      <c r="AM67" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:39" ht="30" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B68" s="3">
+        <v>603737</v>
+      </c>
+      <c r="C68" s="12">
+        <v>47.88</v>
+      </c>
+      <c r="D68" s="12">
+        <v>11.33</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="12">
+        <v>2.68</v>
+      </c>
+      <c r="G68" s="6">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H68" s="4">
+        <v>1.2072000000000001</v>
+      </c>
+      <c r="M68" s="4">
+        <v>0.21540000000000001</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P68" s="4">
+        <v>0.18129999999999999</v>
+      </c>
+      <c r="Z68" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA68" s="4">
+        <v>0.12529999999999999</v>
+      </c>
+      <c r="AB68" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>94</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>89.07</v>
+      </c>
+      <c r="AE68" s="4">
+        <v>-5.2400000000000002E-2</v>
+      </c>
+      <c r="AF68" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O66" s="4">
-        <v>4.3700000000000003E-2</v>
-      </c>
-      <c r="Y66" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z66" s="4">
-        <v>4.5100000000000001E-2</v>
-      </c>
-      <c r="AA66" s="4">
-        <v>0.38119999999999998</v>
-      </c>
-      <c r="AB66" s="1">
-        <v>5.95</v>
-      </c>
-      <c r="AC66" s="1">
-        <v>6.43</v>
-      </c>
-      <c r="AD66" s="4">
-        <v>8.0500000000000002E-2</v>
-      </c>
-      <c r="AE66" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF66" s="1">
-        <v>6.08</v>
-      </c>
-      <c r="AG66" s="1">
-        <v>8.32</v>
-      </c>
-      <c r="AH66" s="11" t="s">
+      <c r="AG68" s="1">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="AH68" s="1">
+        <v>34.85</v>
+      </c>
+      <c r="AI68" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AI66" s="1">
-        <v>-2.62</v>
-      </c>
-      <c r="AJ66" s="1">
-        <v>2.23</v>
-      </c>
-      <c r="AK66" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL66" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:38" ht="30" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" s="3">
-        <v>600028</v>
-      </c>
-      <c r="F67" s="13">
-        <v>1758.68</v>
-      </c>
-      <c r="G67" s="6">
-        <v>630.89</v>
-      </c>
-      <c r="H67" s="4">
-        <v>2.7875999999999999</v>
-      </c>
-      <c r="M67" s="4">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="N67" s="6" t="s">
+      <c r="AJ68" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="AK68" s="1">
+        <v>8.02</v>
+      </c>
+      <c r="AL68" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM68" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:39" ht="30" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" s="3">
+        <v>2601</v>
+      </c>
+      <c r="C69" s="12">
+        <v>14.46</v>
+      </c>
+      <c r="D69" s="12">
+        <v>2.59</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O67" s="4">
-        <v>8.5400000000000004E-2</v>
-      </c>
-      <c r="Y67" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z67" s="4">
-        <v>4.5100000000000001E-2</v>
-      </c>
-      <c r="AA67" s="4">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="AB67" s="1">
-        <v>5.14</v>
-      </c>
-      <c r="AC67" s="1">
-        <v>5.87</v>
-      </c>
-      <c r="AD67" s="4">
-        <v>0.1421</v>
-      </c>
-      <c r="AE67" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF67" s="1">
-        <v>-6.1</v>
-      </c>
-      <c r="AG67" s="1">
-        <v>7.86</v>
-      </c>
-      <c r="AH67" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI67" s="1">
-        <v>-2.1</v>
-      </c>
-      <c r="AJ67" s="1">
-        <v>1.18</v>
-      </c>
-      <c r="AK67" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL67" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:38" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A69" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="21"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="21"/>
-      <c r="X69" s="21"/>
-      <c r="Y69" s="20"/>
-      <c r="Z69" s="21"/>
-      <c r="AA69" s="21"/>
-      <c r="AD69" s="21"/>
-    </row>
-    <row r="70" spans="1:38" ht="30" x14ac:dyDescent="0.15">
+      <c r="F69" s="12">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="G69" s="6">
+        <v>22.86</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="M69" s="4">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P69" s="4">
+        <v>0.18060000000000001</v>
+      </c>
+      <c r="Z69" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA69" s="4">
+        <v>0.12529999999999999</v>
+      </c>
+      <c r="AB69" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>16.95</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="AE69" s="4">
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="AF69" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG69" s="1">
+        <v>15.25</v>
+      </c>
+      <c r="AH69" s="1">
+        <v>24.84</v>
+      </c>
+      <c r="AI69" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ69" s="1">
+        <v>7.89</v>
+      </c>
+      <c r="AK69" s="1">
+        <v>4.76</v>
+      </c>
+      <c r="AL69" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM69" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="B70" s="3">
-        <v>600030</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H70" s="4" t="s">
+        <v>600989</v>
+      </c>
+      <c r="C70" s="12">
+        <v>16.79</v>
+      </c>
+      <c r="D70" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M70" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N70" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O70" s="4">
-        <v>6.2E-2</v>
-      </c>
-      <c r="Y70" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z70" s="4">
-        <v>2.9600000000000001E-2</v>
+      <c r="F70" s="12">
+        <v>32.65</v>
+      </c>
+      <c r="G70" s="6">
+        <v>36.96</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0.88339999999999996</v>
+      </c>
+      <c r="M70" s="4">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P70" s="4">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="Z70" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="AA70" s="4">
-        <v>0.4516</v>
-      </c>
-      <c r="AB70" s="1">
-        <v>25.56</v>
+        <v>0.12529999999999999</v>
+      </c>
+      <c r="AB70" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="AC70" s="1">
-        <v>26.78</v>
-      </c>
-      <c r="AD70" s="4">
-        <v>4.7600000000000003E-2</v>
-      </c>
-      <c r="AE70" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF70" s="1">
-        <v>30.86</v>
+        <v>9.48</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>12.26</v>
+      </c>
+      <c r="AE70" s="4">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="AF70" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="AG70" s="1">
-        <v>22.71</v>
-      </c>
-      <c r="AH70" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI70" s="1">
-        <v>-0.54</v>
+        <v>11.2</v>
+      </c>
+      <c r="AH70" s="1">
+        <v>37.01</v>
+      </c>
+      <c r="AI70" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="AJ70" s="1">
-        <v>-0.39</v>
-      </c>
-      <c r="AK70" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL70" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:38" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+        <v>-1.46</v>
+      </c>
+      <c r="AK70" s="1">
+        <v>-2.17</v>
+      </c>
+      <c r="AL70" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM70" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:39" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A72" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B72" s="18"/>
+        <v>193</v>
+      </c>
+      <c r="B72" s="17"/>
       <c r="C72" s="18"/>
       <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
       <c r="N72" s="20"/>
-      <c r="O72" s="21"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="21"/>
-      <c r="S72" s="21"/>
-      <c r="T72" s="21"/>
-      <c r="U72" s="21"/>
-      <c r="V72" s="21"/>
-      <c r="W72" s="21"/>
-      <c r="X72" s="21"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
+      <c r="U72" s="18"/>
+      <c r="V72" s="18"/>
+      <c r="W72" s="18"/>
+      <c r="X72" s="18"/>
       <c r="Y72" s="20"/>
-      <c r="Z72" s="21"/>
-      <c r="AA72" s="21"/>
-      <c r="AD72" s="21"/>
-    </row>
-    <row r="73" spans="1:38" ht="30" x14ac:dyDescent="0.15">
+      <c r="Z72" s="19"/>
+      <c r="AA72" s="20"/>
+      <c r="AB72" s="20"/>
+      <c r="AE72" s="20"/>
+    </row>
+    <row r="73" spans="1:39" ht="30" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>601857</v>
+      </c>
+      <c r="F73" s="12">
+        <v>3515.65</v>
+      </c>
+      <c r="G73" s="6">
+        <v>525.85</v>
+      </c>
+      <c r="H73" s="4">
+        <v>6.6856999999999998</v>
+      </c>
+      <c r="M73" s="4">
+        <v>2.92E-2</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P73" s="4">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="Z73" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA73" s="4">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="AB73" s="4">
+        <v>0.38119999999999998</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>6.43</v>
+      </c>
+      <c r="AE73" s="4">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="AF73" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>8.32</v>
+      </c>
+      <c r="AI73" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ73" s="1">
+        <v>-2.62</v>
+      </c>
+      <c r="AK73" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="AL73" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM73" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:39" ht="30" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="3">
+        <v>600028</v>
+      </c>
+      <c r="F74" s="12">
+        <v>1758.68</v>
+      </c>
+      <c r="G74" s="6">
+        <v>630.89</v>
+      </c>
+      <c r="H74" s="4">
+        <v>2.7875999999999999</v>
+      </c>
+      <c r="M74" s="4">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P74" s="4">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="Z74" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA74" s="4">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="AB74" s="4">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AC74" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>5.87</v>
+      </c>
+      <c r="AE74" s="4">
+        <v>0.1421</v>
+      </c>
+      <c r="AF74" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG74" s="1">
+        <v>-6.1</v>
+      </c>
+      <c r="AH74" s="1">
+        <v>7.86</v>
+      </c>
+      <c r="AI74" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ74" s="1">
+        <v>-2.1</v>
+      </c>
+      <c r="AK74" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="AL74" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM74" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:39" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A76" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="20"/>
+      <c r="T76" s="20"/>
+      <c r="U76" s="18"/>
+      <c r="V76" s="18"/>
+      <c r="W76" s="18"/>
+      <c r="X76" s="18"/>
+      <c r="Y76" s="20"/>
+      <c r="Z76" s="19"/>
+      <c r="AA76" s="20"/>
+      <c r="AB76" s="20"/>
+      <c r="AE76" s="20"/>
+    </row>
+    <row r="77" spans="1:39" ht="30" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="3">
+        <v>600030</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P77" s="4">
+        <v>6.2E-2</v>
+      </c>
+      <c r="Z77" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA77" s="4">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="AB77" s="4">
+        <v>0.4516</v>
+      </c>
+      <c r="AC77" s="1">
+        <v>25.56</v>
+      </c>
+      <c r="AD77" s="1">
+        <v>26.78</v>
+      </c>
+      <c r="AE77" s="4">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="AF77" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG77" s="1">
+        <v>30.86</v>
+      </c>
+      <c r="AH77" s="1">
+        <v>22.71</v>
+      </c>
+      <c r="AI77" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ77" s="1">
+        <v>-0.54</v>
+      </c>
+      <c r="AK77" s="1">
+        <v>-0.39</v>
+      </c>
+      <c r="AL77" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM77" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:39" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A79" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="20"/>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="18"/>
+      <c r="S79" s="20"/>
+      <c r="T79" s="20"/>
+      <c r="U79" s="18"/>
+      <c r="V79" s="18"/>
+      <c r="W79" s="18"/>
+      <c r="X79" s="18"/>
+      <c r="Y79" s="20"/>
+      <c r="Z79" s="19"/>
+      <c r="AA79" s="20"/>
+      <c r="AB79" s="20"/>
+      <c r="AE79" s="20"/>
+    </row>
+    <row r="80" spans="1:39" ht="30" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B80" s="3">
         <v>600887</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F80" s="12">
         <v>86.25</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G80" s="6">
         <v>63.4</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H80" s="4">
         <v>136.04</v>
       </c>
-      <c r="M73" s="4">
+      <c r="M80" s="4">
         <v>0.24879999999999999</v>
       </c>
-      <c r="N73" s="6" t="s">
+      <c r="N80" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O73" s="4">
+      <c r="O80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P80" s="4">
         <v>0.2429</v>
       </c>
-      <c r="Y73" s="6" t="s">
+      <c r="Z80" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="Z73" s="4">
+      <c r="AA80" s="4">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="AA73" s="4">
+      <c r="AB80" s="4">
         <v>0.66069999999999995</v>
       </c>
-      <c r="AB73" s="1">
+      <c r="AC80" s="1">
         <v>32.729999999999997</v>
       </c>
-      <c r="AC73" s="1">
+      <c r="AD80" s="1">
         <v>34.99</v>
       </c>
-      <c r="AD73" s="4">
+      <c r="AE80" s="4">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="AE73" s="11" t="s">
+      <c r="AF80" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AF73" s="1">
+      <c r="AG80" s="1">
         <v>9.52</v>
       </c>
-      <c r="AG73" s="1">
+      <c r="AH80" s="1">
         <v>8.65</v>
       </c>
-      <c r="AH73" s="11" t="s">
+      <c r="AI80" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AI73" s="1">
+      <c r="AJ80" s="1">
         <v>1.8</v>
       </c>
-      <c r="AJ73" s="1">
+      <c r="AK80" s="1">
         <v>6.16</v>
       </c>
-      <c r="AK73" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL73" s="1" t="s">
+      <c r="AL80" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM80" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:38" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A75" s="17" t="s">
+    <row r="82" spans="1:42" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J82" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L82" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M82" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="N82" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="O82" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="P82" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q82" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="R82" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="S82" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="T82" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="U82" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="V82" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="W82" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="X82" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y82" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z82" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA82" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB82" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE82" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM82" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN82" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP82" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:42" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A83" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="21"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
-      <c r="U75" s="21"/>
-      <c r="V75" s="21"/>
-      <c r="W75" s="21"/>
-      <c r="X75" s="21"/>
-      <c r="Y75" s="20"/>
-      <c r="Z75" s="21"/>
-      <c r="AA75" s="21"/>
-      <c r="AD75" s="21"/>
-    </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="18"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20"/>
+      <c r="U83" s="18"/>
+      <c r="V83" s="18"/>
+      <c r="W83" s="18"/>
+      <c r="X83" s="18"/>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="19"/>
+      <c r="AA83" s="20"/>
+      <c r="AB83" s="20"/>
+      <c r="AE83" s="20"/>
+    </row>
+    <row r="84" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B84" s="3">
         <v>89</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F84" s="12">
         <v>10.55</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G84" s="6">
         <v>6.68</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H84" s="4">
         <v>1.5792999999999999</v>
       </c>
-      <c r="M76" s="4">
+      <c r="M84" s="4">
         <v>2E-3</v>
       </c>
-      <c r="N76" s="6" t="s">
+      <c r="N84" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O76" s="4">
+      <c r="O84" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P84" s="4">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="Y76" s="6" t="s">
+      <c r="Z84" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="Z76" s="4">
+      <c r="AA84" s="4">
         <v>0.10879999999999999</v>
       </c>
-      <c r="AA76" s="4">
+      <c r="AB84" s="4">
         <v>0.23180000000000001</v>
       </c>
-      <c r="AB76" s="1">
+      <c r="AC84" s="1">
         <v>9.8800000000000008</v>
       </c>
-      <c r="AC76" s="1">
+      <c r="AD84" s="1">
         <v>10.25</v>
       </c>
-      <c r="AD76" s="4">
+      <c r="AE84" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="AE76" s="11" t="s">
+      <c r="AF84" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AF76" s="1">
+      <c r="AG84" s="1">
         <v>-0.67</v>
       </c>
-      <c r="AG76" s="1">
+      <c r="AH84" s="1">
         <v>20.54</v>
       </c>
-      <c r="AH76" s="11" t="s">
+      <c r="AI84" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AI76" s="1">
+      <c r="AJ84" s="1">
         <v>0.82</v>
       </c>
-      <c r="AJ76" s="1">
+      <c r="AK84" s="1">
         <v>1.23</v>
       </c>
-      <c r="AK76" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL76" s="1" t="s">
+      <c r="AL84" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM84" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="20"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="20"/>
+      <c r="U86" s="18"/>
+      <c r="V86" s="18"/>
+      <c r="W86" s="18"/>
+      <c r="X86" s="18"/>
+      <c r="Y86" s="20"/>
+      <c r="Z86" s="19"/>
+      <c r="AA86" s="20"/>
+      <c r="AB86" s="20"/>
+      <c r="AE86" s="20"/>
+    </row>
+    <row r="87" spans="1:42" ht="30" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" s="3">
+        <v>601111</v>
+      </c>
+      <c r="C87" s="12">
+        <v>18.86</v>
+      </c>
+      <c r="D87" s="12">
+        <v>1.44</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M87" s="4">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P87" s="4">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="Q87" s="12">
+        <v>2890.08</v>
+      </c>
+      <c r="R87" s="12">
+        <v>1872.95</v>
+      </c>
+      <c r="U87" s="12">
+        <v>11</v>
+      </c>
+      <c r="V87" s="12">
+        <v>145.25</v>
+      </c>
+      <c r="W87" s="12">
+        <v>104.09</v>
+      </c>
+      <c r="X87" s="12">
+        <v>428.8</v>
+      </c>
+      <c r="Y87" s="4">
+        <v>1.0696000000000001</v>
+      </c>
+      <c r="Z87" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA87" s="4">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="AB87" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC87" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AD87" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="AE87" s="4">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="AF87" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG87" s="1">
+        <v>6.81</v>
+      </c>
+      <c r="AH87" s="1">
+        <v>26.58</v>
+      </c>
+      <c r="AI87" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ87" s="1">
+        <v>-2.52</v>
+      </c>
+      <c r="AK87" s="1">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="AL87" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM87" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:42" ht="30" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2928</v>
+      </c>
+      <c r="C88" s="12">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="D88" s="12">
+        <v>3.16</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M88" s="4">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P88" s="4">
+        <v>0.1512</v>
+      </c>
+      <c r="Q88" s="12">
+        <v>77.849999999999994</v>
+      </c>
+      <c r="R88" s="12">
+        <v>55.61</v>
+      </c>
+      <c r="U88" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V88" s="12">
+        <v>4</v>
+      </c>
+      <c r="W88" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="X88" s="12">
+        <v>6.72</v>
+      </c>
+      <c r="Y88" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="Z88" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA88" s="4">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="AB88" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC88" s="1">
+        <v>12.84</v>
+      </c>
+      <c r="AD88" s="1">
+        <v>15</v>
+      </c>
+      <c r="AE88" s="4">
+        <v>0.16819999999999999</v>
+      </c>
+      <c r="AF88" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG88" s="1">
+        <v>95.34</v>
+      </c>
+      <c r="AH88" s="1">
+        <v>25.82</v>
+      </c>
+      <c r="AI88" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ88" s="1">
+        <v>-0.08</v>
+      </c>
+      <c r="AK88" s="1">
+        <v>5.51</v>
+      </c>
+      <c r="AL88" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM88" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:42" ht="30" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B89" s="3">
+        <v>601021</v>
+      </c>
+      <c r="C89" s="12">
+        <v>21.89</v>
+      </c>
+      <c r="D89" s="12">
+        <v>2.67</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M89" s="4">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P89" s="4">
+        <v>0.13789999999999999</v>
+      </c>
+      <c r="Q89" s="12">
+        <v>265.75</v>
+      </c>
+      <c r="R89" s="12">
+        <v>132.51</v>
+      </c>
+      <c r="U89" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V89" s="12">
+        <v>91.69</v>
+      </c>
+      <c r="W89" s="12">
+        <v>4.79</v>
+      </c>
+      <c r="X89" s="12">
+        <v>69.739999999999995</v>
+      </c>
+      <c r="Y89" s="4">
+        <v>0.81279999999999997</v>
+      </c>
+      <c r="Z89" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA89" s="4">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="AB89" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC89" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="AD89" s="1">
+        <v>49.94</v>
+      </c>
+      <c r="AE89" s="4">
+        <v>0.156</v>
+      </c>
+      <c r="AF89" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG89" s="1">
+        <v>23.88</v>
+      </c>
+      <c r="AH89" s="1">
+        <v>20.79</v>
+      </c>
+      <c r="AI89" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ89" s="1">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="AK89" s="1">
+        <v>-2.42</v>
+      </c>
+      <c r="AL89" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM89" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:42" ht="30" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B90" s="3">
+        <v>603885</v>
+      </c>
+      <c r="C90" s="12">
+        <v>28.59</v>
+      </c>
+      <c r="D90" s="12">
+        <v>2.37</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M90" s="4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P90" s="4">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="Q90" s="12">
+        <v>214.55</v>
+      </c>
+      <c r="R90" s="12">
+        <v>118.55</v>
+      </c>
+      <c r="U90" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V90" s="12">
+        <v>17.97</v>
+      </c>
+      <c r="W90" s="12">
+        <v>6.11</v>
+      </c>
+      <c r="X90" s="12">
+        <v>38.08</v>
+      </c>
+      <c r="Y90" s="4">
+        <v>2.4590000000000001</v>
+      </c>
+      <c r="Z90" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA90" s="4">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="AB90" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC90" s="1">
+        <v>15.04</v>
+      </c>
+      <c r="AD90" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="AE90" s="4">
+        <v>0.16350000000000001</v>
+      </c>
+      <c r="AF90" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG90" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="AH90" s="1">
+        <v>35.74</v>
+      </c>
+      <c r="AI90" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ90" s="1">
+        <v>-2.84</v>
+      </c>
+      <c r="AK90" s="1">
+        <v>-0.86</v>
+      </c>
+      <c r="AL90" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM90" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B92" s="17"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="20"/>
+      <c r="O92" s="20"/>
+      <c r="P92" s="20"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="20"/>
+      <c r="T92" s="20"/>
+      <c r="U92" s="18"/>
+      <c r="V92" s="18"/>
+      <c r="W92" s="18"/>
+      <c r="X92" s="18"/>
+      <c r="Y92" s="20"/>
+      <c r="Z92" s="19"/>
+      <c r="AA92" s="20"/>
+      <c r="AB92" s="20"/>
+      <c r="AE92" s="20"/>
+    </row>
+    <row r="93" spans="1:42" ht="30" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B93" s="3">
+        <v>600276</v>
+      </c>
+      <c r="C93" s="12">
+        <v>82.02</v>
+      </c>
+      <c r="D93" s="12">
+        <v>17.32</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F93" s="12">
+        <v>25.47</v>
+      </c>
+      <c r="G93" s="6">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0.62639999999999996</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M93" s="4">
+        <v>0.37109999999999999</v>
+      </c>
+      <c r="N93" s="4">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="O93" s="4">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="P93" s="4">
+        <v>0.23169999999999999</v>
+      </c>
+      <c r="Q93" s="12">
+        <v>223.61</v>
+      </c>
+      <c r="R93" s="12">
+        <v>25.63</v>
+      </c>
+      <c r="U93" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="V93" s="12">
+        <v>36.86</v>
+      </c>
+      <c r="W93" s="12">
+        <v>20.92</v>
+      </c>
+      <c r="X93" s="12">
+        <v>131.15</v>
+      </c>
+      <c r="Y93" s="4">
+        <v>4.1256000000000004</v>
+      </c>
+      <c r="Z93" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA93" s="4">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="AB93" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC93" s="1">
+        <v>90.66</v>
+      </c>
+      <c r="AD93" s="1">
+        <v>93.69</v>
+      </c>
+      <c r="AE93" s="4">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="AF93" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG93" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="AH93" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="AI93" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ93" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="AK93" s="1">
+        <v>5.48</v>
+      </c>
+      <c r="AL93" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM93" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B95" s="17"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="20"/>
+      <c r="M95" s="20"/>
+      <c r="N95" s="20"/>
+      <c r="O95" s="20"/>
+      <c r="P95" s="20"/>
+      <c r="Q95" s="18"/>
+      <c r="R95" s="18"/>
+      <c r="S95" s="20"/>
+      <c r="T95" s="20"/>
+      <c r="U95" s="18"/>
+      <c r="V95" s="18"/>
+      <c r="W95" s="18"/>
+      <c r="X95" s="18"/>
+      <c r="Y95" s="20"/>
+      <c r="Z95" s="19"/>
+      <c r="AA95" s="20"/>
+      <c r="AB95" s="20"/>
+      <c r="AE95" s="20"/>
+    </row>
+    <row r="96" spans="1:42" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A96" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C96" s="12">
+        <v>35.58</v>
+      </c>
+      <c r="D96" s="12">
+        <v>7.68</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F96" s="12">
+        <v>1.77</v>
+      </c>
+      <c r="G96" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="H96" s="4">
+        <v>0.15529999999999999</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M96" s="4">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="N96" s="4">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="O96" s="4">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="P96" s="4">
+        <v>0.2263</v>
+      </c>
+      <c r="Q96" s="12">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="R96" s="12">
+        <v>7.2</v>
+      </c>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="V96" s="12">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="W96" s="12">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="X96" s="12">
+        <v>37.380000000000003</v>
+      </c>
+      <c r="Y96" s="4">
+        <v>4.5194000000000001</v>
+      </c>
+      <c r="Z96" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA96" s="4">
+        <v>0.21010000000000001</v>
+      </c>
+      <c r="AB96" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC96" s="5">
+        <v>34.08</v>
+      </c>
+      <c r="AD96" s="5">
+        <v>40.04</v>
+      </c>
+      <c r="AE96" s="4">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AF96" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG96" s="5">
+        <v>23.74</v>
+      </c>
+      <c r="AH96" s="5">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AI96" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ96" s="5">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="AK96" s="5">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="AL96" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM96" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:39" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A97" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B97" s="3">
+        <v>661</v>
+      </c>
+      <c r="C97" s="12">
+        <v>70.83</v>
+      </c>
+      <c r="D97" s="12">
+        <v>7.93</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F97" s="12">
+        <v>8.84</v>
+      </c>
+      <c r="G97" s="6">
+        <v>10.06</v>
+      </c>
+      <c r="H97" s="4">
+        <v>0.87870000000000004</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M97" s="4">
+        <v>0.38979999999999998</v>
+      </c>
+      <c r="N97" s="4">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="O97" s="4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="P97" s="4">
+        <v>0.20710000000000001</v>
+      </c>
+      <c r="Q97" s="12">
+        <v>94.13</v>
+      </c>
+      <c r="R97" s="12">
+        <v>30.87</v>
+      </c>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="V97" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="W97" s="12">
+        <v>4.46</v>
+      </c>
+      <c r="X97" s="12">
+        <v>27.13</v>
+      </c>
+      <c r="Y97" s="4">
+        <v>18.5824</v>
+      </c>
+      <c r="Z97" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA97" s="4">
+        <v>0.21010000000000001</v>
+      </c>
+      <c r="AB97" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC97" s="5">
+        <v>493</v>
+      </c>
+      <c r="AD97" s="5">
+        <v>503.13</v>
+      </c>
+      <c r="AE97" s="4">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="AF97" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG97" s="5">
+        <v>59.61</v>
+      </c>
+      <c r="AH97" s="5">
+        <v>49.87</v>
+      </c>
+      <c r="AI97" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ97" s="5">
+        <v>-0.6</v>
+      </c>
+      <c r="AK97" s="5">
+        <v>4.45</v>
+      </c>
+      <c r="AL97" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM97" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:39" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A98" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B98" s="3">
+        <v>300122</v>
+      </c>
+      <c r="C98" s="12">
+        <v>44.37</v>
+      </c>
+      <c r="D98" s="12">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F98" s="12">
+        <v>5.86</v>
+      </c>
+      <c r="G98" s="6">
+        <v>14.51</v>
+      </c>
+      <c r="H98" s="4">
+        <v>0.40389999999999998</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M98" s="4">
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="N98" s="4">
+        <v>2.58E-2</v>
+      </c>
+      <c r="O98" s="4">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="P98" s="4">
+        <v>0.4078</v>
+      </c>
+      <c r="Q98" s="12">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="R98" s="12">
+        <v>26.29</v>
+      </c>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="V98" s="12">
+        <v>16</v>
+      </c>
+      <c r="W98" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="X98" s="12">
+        <v>20.98</v>
+      </c>
+      <c r="Y98" s="4">
+        <v>1.4831000000000001</v>
+      </c>
+      <c r="Z98" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA98" s="4">
+        <v>0.21010000000000001</v>
+      </c>
+      <c r="AB98" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC98" s="5">
+        <v>59</v>
+      </c>
+      <c r="AD98" s="5">
+        <v>59.41</v>
+      </c>
+      <c r="AE98" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AF98" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG98" s="5">
+        <v>68.12</v>
+      </c>
+      <c r="AH98" s="5">
+        <v>38.53</v>
+      </c>
+      <c r="AI98" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ98" s="5">
+        <v>1.37</v>
+      </c>
+      <c r="AK98" s="5">
+        <v>13.51</v>
+      </c>
+      <c r="AL98" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM98" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:39" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A99" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B99" s="3">
+        <v>300601</v>
+      </c>
+      <c r="C99" s="12">
+        <v>126.06</v>
+      </c>
+      <c r="D99" s="12">
+        <v>25.25</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F99" s="12">
+        <v>3.36</v>
+      </c>
+      <c r="G99" s="6">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="H99" s="4">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M99" s="4">
+        <v>0.49830000000000002</v>
+      </c>
+      <c r="N99" s="4">
+        <v>7.6799999999999993E-2</v>
+      </c>
+      <c r="O99" s="4">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="P99" s="4">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="Q99" s="12">
+        <v>33.64</v>
+      </c>
+      <c r="R99" s="12">
+        <v>15.04</v>
+      </c>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="V99" s="12">
+        <v>6.39</v>
+      </c>
+      <c r="W99" s="12">
+        <v>0.43</v>
+      </c>
+      <c r="X99" s="12">
+        <v>6.18</v>
+      </c>
+      <c r="Y99" s="4">
+        <v>1.0344</v>
+      </c>
+      <c r="Z99" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA99" s="4">
+        <v>0.21010000000000001</v>
+      </c>
+      <c r="AB99" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC99" s="5">
+        <v>95.8</v>
+      </c>
+      <c r="AD99" s="5">
+        <v>96.06</v>
+      </c>
+      <c r="AE99" s="4">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="AF99" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG99" s="5">
+        <v>28.56</v>
+      </c>
+      <c r="AH99" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI99" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ99" s="5">
+        <v>7.38</v>
+      </c>
+      <c r="AK99" s="5">
+        <v>17.55</v>
+      </c>
+      <c r="AL99" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM99" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:39" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A100" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B100" s="3">
+        <v>603658</v>
+      </c>
+      <c r="C100" s="12">
+        <v>67.12</v>
+      </c>
+      <c r="D100" s="12">
+        <v>21.72</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F100" s="12">
+        <v>6.54</v>
+      </c>
+      <c r="G100" s="6">
+        <v>5.63</v>
+      </c>
+      <c r="H100" s="4">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M100" s="4">
+        <v>0.16370000000000001</v>
+      </c>
+      <c r="N100" s="4">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="O100" s="4">
+        <v>0.1104</v>
+      </c>
+      <c r="P100" s="4">
+        <v>0.31290000000000001</v>
+      </c>
+      <c r="Q100" s="12">
+        <v>26.57</v>
+      </c>
+      <c r="R100" s="12">
+        <v>6.91</v>
+      </c>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="V100" s="12">
+        <v>4.2</v>
+      </c>
+      <c r="W100" s="12">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="X100" s="12">
+        <v>7.68</v>
+      </c>
+      <c r="Y100" s="4">
+        <v>2.3167</v>
+      </c>
+      <c r="Z100" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA100" s="4">
+        <v>0.21010000000000001</v>
+      </c>
+      <c r="AB100" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC100" s="5">
+        <v>110.18</v>
+      </c>
+      <c r="AD100" s="5">
+        <v>108.08</v>
+      </c>
+      <c r="AE100" s="4">
+        <v>-1.9099999999999999E-2</v>
+      </c>
+      <c r="AF100" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG100" s="5">
+        <v>30.47</v>
+      </c>
+      <c r="AH100" s="5">
+        <v>30.04</v>
+      </c>
+      <c r="AI100" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ100" s="5">
+        <v>7.38</v>
+      </c>
+      <c r="AK100" s="5">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="AL100" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM100" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:39" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A102" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B102" s="17"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="20"/>
+      <c r="O102" s="20"/>
+      <c r="P102" s="20"/>
+      <c r="Q102" s="18"/>
+      <c r="R102" s="18"/>
+      <c r="S102" s="20"/>
+      <c r="T102" s="20"/>
+      <c r="U102" s="18"/>
+      <c r="V102" s="18"/>
+      <c r="W102" s="18"/>
+      <c r="X102" s="18"/>
+      <c r="Y102" s="20"/>
+      <c r="Z102" s="19"/>
+      <c r="AA102" s="20"/>
+      <c r="AB102" s="20"/>
+      <c r="AE102" s="20"/>
+    </row>
+    <row r="103" spans="1:39" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A103" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B103" s="3">
+        <v>600276</v>
+      </c>
+      <c r="C103" s="12">
+        <v>82.02</v>
+      </c>
+      <c r="D103" s="12">
+        <v>17.32</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" s="12">
+        <v>25.47</v>
+      </c>
+      <c r="G103" s="6">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="H103" s="4">
+        <v>0.62639999999999996</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M103" s="4">
+        <v>0.37109999999999999</v>
+      </c>
+      <c r="N103" s="4">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="O103" s="4">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="P103" s="4">
+        <v>0.23169999999999999</v>
+      </c>
+      <c r="Q103" s="12">
+        <v>223.61</v>
+      </c>
+      <c r="R103" s="12">
+        <v>25.63</v>
+      </c>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="V103" s="12">
+        <v>36.86</v>
+      </c>
+      <c r="W103" s="12">
+        <v>20.92</v>
+      </c>
+      <c r="X103" s="12">
+        <v>131.15</v>
+      </c>
+      <c r="Y103" s="4">
+        <v>4.1256000000000004</v>
+      </c>
+      <c r="Z103" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA103" s="4">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="AB103" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC103" s="5">
+        <v>90.66</v>
+      </c>
+      <c r="AD103" s="5">
+        <v>93.69</v>
+      </c>
+      <c r="AE103" s="4">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="AF103" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG103" s="5">
+        <v>1.19</v>
+      </c>
+      <c r="AH103" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="AI103" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ103" s="5">
+        <v>3.61</v>
+      </c>
+      <c r="AK103" s="5">
+        <v>5.48</v>
+      </c>
+      <c r="AL103" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM103" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:39" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A104" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B104" s="3">
+        <v>600276</v>
+      </c>
+      <c r="C104" s="12">
+        <v>82.02</v>
+      </c>
+      <c r="D104" s="12">
+        <v>17.32</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" s="12">
+        <v>25.47</v>
+      </c>
+      <c r="G104" s="6">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="H104" s="4">
+        <v>0.62639999999999996</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M104" s="4">
+        <v>0.37109999999999999</v>
+      </c>
+      <c r="N104" s="4">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="O104" s="4">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="P104" s="4">
+        <v>0.23169999999999999</v>
+      </c>
+      <c r="Q104" s="12">
+        <v>223.61</v>
+      </c>
+      <c r="R104" s="12">
+        <v>25.63</v>
+      </c>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="V104" s="12">
+        <v>36.86</v>
+      </c>
+      <c r="W104" s="12">
+        <v>20.92</v>
+      </c>
+      <c r="X104" s="12">
+        <v>131.15</v>
+      </c>
+      <c r="Y104" s="4">
+        <v>4.1256000000000004</v>
+      </c>
+      <c r="Z104" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA104" s="4">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="AB104" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC104" s="5">
+        <v>90.66</v>
+      </c>
+      <c r="AD104" s="5">
+        <v>93.69</v>
+      </c>
+      <c r="AE104" s="4">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="AF104" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG104" s="5">
+        <v>1.19</v>
+      </c>
+      <c r="AH104" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="AI104" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ104" s="5">
+        <v>3.61</v>
+      </c>
+      <c r="AK104" s="5">
+        <v>5.48</v>
+      </c>
+      <c r="AL104" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM104" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:39" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A105" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B105" s="3">
+        <v>600276</v>
+      </c>
+      <c r="C105" s="12">
+        <v>82.02</v>
+      </c>
+      <c r="D105" s="12">
+        <v>17.32</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" s="12">
+        <v>25.47</v>
+      </c>
+      <c r="G105" s="6">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="H105" s="4">
+        <v>0.62639999999999996</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M105" s="4">
+        <v>0.37109999999999999</v>
+      </c>
+      <c r="N105" s="4">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="O105" s="4">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="P105" s="4">
+        <v>0.23169999999999999</v>
+      </c>
+      <c r="Q105" s="12">
+        <v>223.61</v>
+      </c>
+      <c r="R105" s="12">
+        <v>25.63</v>
+      </c>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="V105" s="12">
+        <v>36.86</v>
+      </c>
+      <c r="W105" s="12">
+        <v>20.92</v>
+      </c>
+      <c r="X105" s="12">
+        <v>131.15</v>
+      </c>
+      <c r="Y105" s="4">
+        <v>4.1256000000000004</v>
+      </c>
+      <c r="Z105" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA105" s="4">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="AB105" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC105" s="5">
+        <v>90.66</v>
+      </c>
+      <c r="AD105" s="5">
+        <v>93.69</v>
+      </c>
+      <c r="AE105" s="4">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="AF105" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG105" s="5">
+        <v>1.19</v>
+      </c>
+      <c r="AH105" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="AI105" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ105" s="5">
+        <v>3.61</v>
+      </c>
+      <c r="AK105" s="5">
+        <v>5.48</v>
+      </c>
+      <c r="AL105" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM105" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:39" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A106" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B106" s="3">
+        <v>600276</v>
+      </c>
+      <c r="C106" s="12">
+        <v>82.02</v>
+      </c>
+      <c r="D106" s="12">
+        <v>17.32</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" s="12">
+        <v>25.47</v>
+      </c>
+      <c r="G106" s="6">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="H106" s="4">
+        <v>0.62639999999999996</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M106" s="4">
+        <v>0.37109999999999999</v>
+      </c>
+      <c r="N106" s="4">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="O106" s="4">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="P106" s="4">
+        <v>0.23169999999999999</v>
+      </c>
+      <c r="Q106" s="12">
+        <v>223.61</v>
+      </c>
+      <c r="R106" s="12">
+        <v>25.63</v>
+      </c>
+      <c r="S106" s="4"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="V106" s="12">
+        <v>36.86</v>
+      </c>
+      <c r="W106" s="12">
+        <v>20.92</v>
+      </c>
+      <c r="X106" s="12">
+        <v>131.15</v>
+      </c>
+      <c r="Y106" s="4">
+        <v>4.1256000000000004</v>
+      </c>
+      <c r="Z106" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA106" s="4">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="AB106" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC106" s="5">
+        <v>90.66</v>
+      </c>
+      <c r="AD106" s="5">
+        <v>93.69</v>
+      </c>
+      <c r="AE106" s="4">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="AF106" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG106" s="5">
+        <v>1.19</v>
+      </c>
+      <c r="AH106" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="AI106" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ106" s="5">
+        <v>3.61</v>
+      </c>
+      <c r="AK106" s="5">
+        <v>5.48</v>
+      </c>
+      <c r="AL106" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM106" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="I1:O1"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
